--- a/Geology/8.xlsx
+++ b/Geology/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C591E-4ED4-4359-BB33-428E1D0559AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C153D652-D521-4076-8D60-6D19F0B272C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>x</t>
   </si>
@@ -191,6 +191,9 @@
   <si>
     <t>a^=</t>
   </si>
+  <si>
+    <t>Від'ємний зв'язок</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +201,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -297,7 +300,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -356,6 +359,18 @@
             <a:r>
               <a:rPr lang="uk-UA" baseline="0"/>
               <a:t> поле</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="uk-UA" baseline="0"/>
+              <a:t>від'ємний лінійний зв'язок</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -1649,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CC1073-2B09-49F5-9FFA-5F7D6155F182}">
   <dimension ref="A2:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="M37" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,11 +2124,14 @@
       </c>
       <c r="K19" s="5">
         <f>M19/M20</f>
-        <v>-20.893670202849798</v>
+        <v>-17.909722952532729</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="M19">
         <f>H21*SQRT(M2-2)</f>
-        <v>-4.1577878733768987</v>
+        <v>-4.1283853405898281</v>
       </c>
       <c r="R19" s="6">
         <v>15.5</v>
@@ -2157,7 +2175,7 @@
       </c>
       <c r="M20">
         <f>SQRT(1-POWER(H21,2))</f>
-        <v>0.1989974874213242</v>
+        <v>0.23051084327387691</v>
       </c>
       <c r="R20" s="6">
         <v>16.100000000000001</v>
@@ -2192,18 +2210,19 @@
         <f>SUM(I26:I45)/M2</f>
         <v>307.08950000000004</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="13">
-        <v>-0.98</v>
+        <f>C53/D53</f>
+        <v>-0.97306975656073402</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="5">
         <f>H21+I54-K53</f>
-        <v>-0.9992644666428584</v>
+        <v>-0.99890959675132351</v>
       </c>
       <c r="R21" s="6">
         <v>16.7</v>
@@ -2236,7 +2255,7 @@
       </c>
       <c r="K22" s="13">
         <f>H21+I54+K53</f>
-        <v>-0.96267593335714163</v>
+        <v>-0.94981513155412678</v>
       </c>
       <c r="R22" s="6">
         <v>18</v>
@@ -3375,7 +3394,7 @@
         <v>0.26622912452728675</v>
       </c>
     </row>
-    <row r="49" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
       <c r="S49" s="1">
         <v>19.2</v>
       </c>
@@ -3403,7 +3422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.25">
       <c r="S50" s="1">
         <v>20.5</v>
       </c>
@@ -3431,7 +3450,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:31" x14ac:dyDescent="0.25">
       <c r="Z51">
         <v>18</v>
       </c>
@@ -3447,14 +3466,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:31" x14ac:dyDescent="0.25">
       <c r="I52" s="4">
         <f>1-POWER(H21,2)</f>
-        <v>3.960000000000008E-2</v>
+        <v>5.3135248866833851E-2</v>
       </c>
       <c r="K52">
         <f>I52/(SQRT(M2-2))</f>
-        <v>9.333809511662447E-3</v>
+        <v>1.2524098264591011E-2</v>
       </c>
       <c r="Z52">
         <v>19</v>
@@ -3471,14 +3490,22 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f>E21-E19*E20</f>
+        <v>-108.97037499999993</v>
+      </c>
+      <c r="D53" s="4">
+        <f>H19*H20</f>
+        <v>111.98619036845851</v>
+      </c>
       <c r="I53">
         <f>H21*I52</f>
-        <v>-3.8808000000000079E-2</v>
+        <v>-5.1704303679644036E-2</v>
       </c>
       <c r="K53">
         <f>1.96*K52</f>
-        <v>1.8294266642858395E-2</v>
+        <v>2.4547232598598381E-2</v>
       </c>
       <c r="Z53">
         <v>20</v>
@@ -3495,10 +3522,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
       <c r="I54">
         <f>I53/(2*M2)</f>
-        <v>-9.7020000000000201E-4</v>
+        <v>-1.292607591991101E-3</v>
       </c>
       <c r="AB54" t="s">
         <v>9</v>
@@ -3508,10 +3535,10 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="55" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.25">
       <c r="H55" s="15"/>
     </row>
-    <row r="57" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:31" x14ac:dyDescent="0.25">
       <c r="AC57" t="s">
         <v>23</v>
       </c>
@@ -3522,7 +3549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.25">
       <c r="AC58">
         <v>1</v>
       </c>
@@ -3534,7 +3561,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="59" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.25">
       <c r="AC59">
         <v>2</v>
       </c>
@@ -3546,7 +3573,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="60" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.25">
       <c r="S60" s="9" t="s">
         <v>29</v>
       </c>
@@ -3568,7 +3595,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="61" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.25">
       <c r="AC61">
         <v>4</v>
       </c>
@@ -3580,7 +3607,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="62" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.25">
       <c r="S62" s="8" t="s">
         <v>31</v>
       </c>
@@ -3599,7 +3626,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="63" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.25">
       <c r="AC63">
         <v>6</v>
       </c>
@@ -3611,7 +3638,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="64" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:31" x14ac:dyDescent="0.25">
       <c r="S64" t="s">
         <v>32</v>
       </c>

--- a/Geology/8.xlsx
+++ b/Geology/8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C153D652-D521-4076-8D60-6D19F0B272C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57655C67-E03A-4B47-B05D-A70D28A15DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
   <sheets>
     <sheet name="8-9" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>x</t>
   </si>
@@ -193,6 +193,51 @@
   </si>
   <si>
     <t>Від'ємний зв'язок</t>
+  </si>
+  <si>
+    <t>у¯^</t>
+  </si>
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>ε^2</t>
+  </si>
+  <si>
+    <t>S^2ε=</t>
+  </si>
+  <si>
+    <t>σ{a^}=</t>
+  </si>
+  <si>
+    <t>σ{b^}=</t>
+  </si>
+  <si>
+    <t>aн=</t>
+  </si>
+  <si>
+    <t>t1-a/2,v=</t>
+  </si>
+  <si>
+    <t>ав=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bн = </t>
+  </si>
+  <si>
+    <t>bв =</t>
+  </si>
+  <si>
+    <t>tа=</t>
+  </si>
+  <si>
+    <t>параметр а значющий</t>
+  </si>
+  <si>
+    <t>tb=</t>
+  </si>
+  <si>
+    <t>параметр b незначищий</t>
   </si>
 </sst>
 </file>
@@ -228,7 +273,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -302,6 +353,9 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1664,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CC1073-2B09-49F5-9FFA-5F7D6155F182}">
   <dimension ref="A2:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M37" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D369E1F8-8E6B-4CB9-A205-DFDD95DC900B}">
-  <dimension ref="A2:I46"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,17 +3967,25 @@
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>20</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -3933,8 +3995,23 @@
         <f>SUM(I26:I45)/E2</f>
         <v>616.35500000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3955,8 +4032,26 @@
         <f>E7*(E6/E5)</f>
         <v>-2.7866917293233091</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="N3" s="4">
+        <f>H4+H3*L3</f>
+        <v>93.998571428571438</v>
+      </c>
+      <c r="O3" s="4">
+        <f>M3-N3</f>
+        <v>-0.89857142857144368</v>
+      </c>
+      <c r="P3" s="4">
+        <f>POWER(O3,2)</f>
+        <v>0.80743061224492507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3977,8 +4072,26 @@
         <f>E4-H3*E3</f>
         <v>96.785263157894747</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>92</v>
+      </c>
+      <c r="N4" s="4">
+        <f>H4+H3*L4</f>
+        <v>91.211879699248129</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O22" si="0">M4-N4</f>
+        <v>0.78812030075187067</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" ref="P4:P22" si="1">POWER(O4,2)</f>
+        <v>0.6211336084572191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3992,8 +4105,26 @@
         <f>SQRT(C46/E2)</f>
         <v>5.7662812973353983</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="N5" s="4">
+        <f>H4+H3*L5</f>
+        <v>88.425187969924821</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.1251879699248235</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2660479676635454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4007,8 +4138,33 @@
         <f>SQRT(G46/E2)</f>
         <v>16.542305613184638</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="11">
+        <f>1/(E2-2)*P23</f>
+        <v>17.155540100250644</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>91.4</v>
+      </c>
+      <c r="N6" s="4">
+        <f>H4+H3*L6</f>
+        <v>85.638496240601512</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7615037593984937</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="1"/>
+        <v>33.194925569562976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4022,16 +4178,66 @@
         <f>(H2-D9)/D10</f>
         <v>-0.97137900701271973</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="11">
+        <f>SQRT(H63)</f>
+        <v>1.924054305107175</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="N7" s="4">
+        <f>H4+H3*L7</f>
+        <v>82.851804511278203</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0518045112782062</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1062927299451861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SQRT(F66)</f>
+        <v>0.16061695010810981</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="N8" s="4">
+        <f>H4+H3*L8</f>
+        <v>80.065112781954895</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.9651127819549004</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="1"/>
+        <v>15.72211937362213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4042,8 +4248,26 @@
         <f>E3*E4</f>
         <v>709.01250000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="N9" s="4">
+        <f>H4+H3*L9</f>
+        <v>77.278421052631586</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.778421052631586</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="1"/>
+        <v>7.7196235457064102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4054,127 +4278,419 @@
         <f>E5*E6</f>
         <v>95.387587472112955</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="11">
+        <f>H4-H1*H7</f>
+        <v>92.744749117169675</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="N10" s="4">
+        <f>H4+H3*L10</f>
+        <v>74.491729323308277</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9082706766917283</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4580383289049639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="11">
+        <f>H4+H1*H7</f>
+        <v>100.82577719861982</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="N11" s="4">
+        <f>H4+H3*L11</f>
+        <v>71.705037593984969</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.694962406015037</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="1"/>
+        <v>7.2628223698343568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="N12" s="4">
+        <f>H4+H3*L12</f>
+        <v>68.91834586466166</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.2183458646616572</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="1"/>
+        <v>17.794441833908103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="11">
+        <f>H3-H1*H8</f>
+        <v>-3.1239873245503396</v>
+      </c>
+      <c r="L13" s="1">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="N13" s="4">
+        <f>H4+H3*L13</f>
+        <v>66.131654135338351</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.7316541353383528</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="1"/>
+        <v>22.388550856464533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="11">
+        <f>H3+H1*H8</f>
+        <v>-2.4493961340962787</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="N14" s="4">
+        <f>H4+H3*L14</f>
+        <v>63.344962406015036</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.444962406015037</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9778411668268383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="N15" s="4">
+        <f>H4+H3*L15</f>
+        <v>60.558270676691727</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9417293233082731</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="1"/>
+        <v>98.83798193792758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="11">
+        <f>H4/H7</f>
+        <v>50.302771029377752</v>
+      </c>
+      <c r="L16" s="1">
+        <v>14</v>
+      </c>
+      <c r="M16" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="N16" s="4">
+        <f>H4+H3*L16</f>
+        <v>57.771578947368418</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5284210526315789</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="1"/>
+        <v>30.563439335180053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="1">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="N17" s="4">
+        <f>H4+H3*L17</f>
+        <v>54.98488721804511</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1151127819548918</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4737020803889616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="N18" s="4">
+        <f>H4+H3*L18</f>
+        <v>52.198195488721801</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.9981954887217981</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="1"/>
+        <v>24.981958143478934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="11">
+        <f>H3/H8</f>
+        <v>-17.349923077530811</v>
+      </c>
+      <c r="L19" s="1">
+        <v>17</v>
+      </c>
+      <c r="M19" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="N19" s="4">
+        <f>H4+H3*L19</f>
+        <v>49.411503759398492</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.0115037593984937</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="1"/>
+        <v>16.092162411668248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="1">
+        <v>18</v>
+      </c>
+      <c r="M20" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="N20" s="4">
+        <f>H4+H3*L20</f>
+        <v>46.624812030075184</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.1248120300751836</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5148261631522226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="N21" s="4">
+        <f>H4+H3*L21</f>
+        <v>43.838120300751875</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.8120300751877778E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4531573294136134E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="N22" s="4">
+        <f>H4+H3*L22</f>
+        <v>41.051428571428566</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6485714285714366</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="1"/>
+        <v>7.0149306122449406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="10">
+        <f>SUM(P3:P22)</f>
+        <v>308.79972180451159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -4202,7 +4718,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -4211,7 +4727,7 @@
         <v>-8.5</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C45" si="0">POWER(B27,2)</f>
+        <f t="shared" ref="C27:C45" si="2">POWER(B27,2)</f>
         <v>72.25</v>
       </c>
       <c r="E27" s="1">
@@ -4222,15 +4738,15 @@
         <v>24.474999999999994</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:G45" si="1">POWER(F27,2)</f>
+        <f t="shared" ref="G27:G45" si="3">POWER(F27,2)</f>
         <v>599.02562499999976</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I45" si="2">A27*E27</f>
+        <f t="shared" ref="I27:I45" si="4">A27*E27</f>
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -4239,7 +4755,7 @@
         <v>-7.5</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="E28" s="1">
@@ -4250,15 +4766,15 @@
         <v>19.774999999999991</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>391.05062499999968</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>261.89999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -4267,7 +4783,7 @@
         <v>-6.5</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.25</v>
       </c>
       <c r="E29" s="1">
@@ -4278,15 +4794,15 @@
         <v>23.875</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>570.015625</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>365.6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -4295,7 +4811,7 @@
         <v>-5.5</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30.25</v>
       </c>
       <c r="E30" s="1">
@@ -4306,15 +4822,15 @@
         <v>14.274999999999991</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>203.77562499999976</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>409</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -4323,7 +4839,7 @@
         <v>-4.5</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.25</v>
       </c>
       <c r="E31" s="1">
@@ -4334,15 +4850,15 @@
         <v>8.5749999999999886</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73.530624999999802</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>456.59999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -4351,7 +4867,7 @@
         <v>-3.5</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
       <c r="E32" s="1">
@@ -4362,11 +4878,11 @@
         <v>6.9749999999999943</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48.65062499999992</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>521.5</v>
       </c>
     </row>
@@ -4379,7 +4895,7 @@
         <v>-2.5</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
       <c r="E33" s="1">
@@ -4390,11 +4906,11 @@
         <v>9.875</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97.515625</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>619.20000000000005</v>
       </c>
     </row>
@@ -4407,7 +4923,7 @@
         <v>-1.5</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="E34" s="1">
@@ -4418,11 +4934,11 @@
         <v>6.875</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47.265625</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>669.6</v>
       </c>
     </row>
@@ -4435,7 +4951,7 @@
         <v>-0.5</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="E35" s="1">
@@ -4446,11 +4962,11 @@
         <v>-2.8250000000000028</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9806250000000158</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>647</v>
       </c>
     </row>
@@ -4463,7 +4979,7 @@
         <v>0.5</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="E36" s="1">
@@ -4474,11 +4990,11 @@
         <v>-6.1250000000000071</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.515625000000085</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>675.4</v>
       </c>
     </row>
@@ -4491,7 +5007,7 @@
         <v>1.5</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="E37" s="1">
@@ -4502,11 +5018,11 @@
         <v>-6.6250000000000071</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43.890625000000092</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>730.8</v>
       </c>
     </row>
@@ -4519,7 +5035,7 @@
         <v>2.5</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
       <c r="E38" s="1">
@@ -4530,11 +5046,11 @@
         <v>2.9749999999999943</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.8506249999999653</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>916.5</v>
       </c>
     </row>
@@ -4547,7 +5063,7 @@
         <v>3.5</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
       <c r="E39" s="1">
@@ -4558,11 +5074,11 @@
         <v>-4.2250000000000085</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.850625000000072</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>886.19999999999993</v>
       </c>
     </row>
@@ -4575,7 +5091,7 @@
         <v>4.5</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.25</v>
       </c>
       <c r="E40" s="1">
@@ -4586,7 +5102,7 @@
         <v>-10.425000000000004</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108.68062500000009</v>
       </c>
       <c r="I40">
@@ -4603,7 +5119,7 @@
         <v>5.5</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30.25</v>
       </c>
       <c r="E41" s="1">
@@ -4614,11 +5130,11 @@
         <v>-20.325000000000003</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>413.10562500000009</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>755.2</v>
       </c>
     </row>
@@ -4631,7 +5147,7 @@
         <v>6.5</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.25</v>
       </c>
       <c r="E42" s="1">
@@ -4642,11 +5158,11 @@
         <v>-22.125000000000007</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>489.51562500000034</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>771.8</v>
       </c>
     </row>
@@ -4659,7 +5175,7 @@
         <v>7.5</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="E43" s="1">
@@ -4670,11 +5186,11 @@
         <v>-23.025000000000006</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>530.15062500000022</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>801</v>
       </c>
     </row>
@@ -4687,7 +5203,7 @@
         <v>8.5</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72.25</v>
       </c>
       <c r="E44" s="1">
@@ -4698,11 +5214,11 @@
         <v>-23.725000000000009</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>562.87562500000035</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>832.19999999999993</v>
       </c>
     </row>
@@ -4715,7 +5231,7 @@
         <v>9.5</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90.25</v>
       </c>
       <c r="E45" s="1">
@@ -4726,11 +5242,11 @@
         <v>-23.825000000000003</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>567.63062500000012</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>874</v>
       </c>
     </row>
@@ -4750,7 +5266,36 @@
         <v>5472.9574999999995</v>
       </c>
     </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f>H6/E2</f>
+        <v>0.85777700501253218</v>
+      </c>
+      <c r="F63">
+        <f>POWER(E3,2)/POWER(E5,2)</f>
+        <v>3.3157894736842097</v>
+      </c>
+      <c r="G63">
+        <f>1+F63</f>
+        <v>4.3157894736842097</v>
+      </c>
+      <c r="H63">
+        <f>E63*G63</f>
+        <v>3.7019849690014541</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f>E2*POWER(E5,2)</f>
+        <v>665.00000000000011</v>
+      </c>
+      <c r="F66">
+        <f>H6/E66</f>
+        <v>2.5797804662031038E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Geology/8.xlsx
+++ b/Geology/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57655C67-E03A-4B47-B05D-A70D28A15DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962631E-3C51-4D56-A087-E917D6BA06BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>x</t>
   </si>
@@ -239,6 +239,57 @@
   <si>
     <t>параметр b незначищий</t>
   </si>
+  <si>
+    <t>Початкові данні</t>
+  </si>
+  <si>
+    <t>Значення регресії</t>
+  </si>
+  <si>
+    <t>y¯^ (x)= a^+b^x</t>
+  </si>
+  <si>
+    <t>σ{y¯^ (x)}</t>
+  </si>
+  <si>
+    <t>95% довірчих інтервалів на регресію</t>
+  </si>
+  <si>
+    <t>y¯н(х)</t>
+  </si>
+  <si>
+    <t>y¯в(х)</t>
+  </si>
+  <si>
+    <t>σ{y^ (x)}</t>
+  </si>
+  <si>
+    <t>95% довірчих інтервалів на  прогнозне значення</t>
+  </si>
+  <si>
+    <t>yн(х)</t>
+  </si>
+  <si>
+    <t>yв(х)</t>
+  </si>
+  <si>
+    <t>F=</t>
+  </si>
+  <si>
+    <t>f=</t>
+  </si>
+  <si>
+    <t>F&gt;f</t>
+  </si>
+  <si>
+    <t>регресія значуща</t>
+  </si>
+  <si>
+    <t>R^2=</t>
+  </si>
+  <si>
+    <t>регресія адекватна, але в даних є 1 аномальне значення</t>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -328,11 +379,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -356,6 +416,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -822,6 +916,1842 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33443353986966945"/>
+          <c:y val="1.6802550030896483E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2218474078087632E-2"/>
+          <c:y val="8.730380730380731E-2"/>
+          <c:w val="0.93475525881129451"/>
+          <c:h val="0.84059590453291244"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$S$5:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$T$5:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C17-4268-882F-E65329781C65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Лінія регресії</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$S$5:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$U$5:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>93.998571428571438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.211879699248129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.425187969924821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.638496240601512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.851804511278203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.065112781954895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.278421052631586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.491729323308277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.705037593984969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.91834586466166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.131654135338351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.344962406015036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.558270676691727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.771578947368418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.98488721804511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.198195488721801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.411503759398492</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.624812030075184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.838120300751875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.051428571428566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-8C17-4268-882F-E65329781C65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>на регресію</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$S$5:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$X$5:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>90.25018679754632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.747408944856744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.234221891903886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.707709989226885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.164000904514523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.598008195007623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.003237874410587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.371859378452584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.695367146159185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.966106465472834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.179414736149525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.335291958189259</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.438400731836026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.496395769147412</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.51778263109783</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.510391881958121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.480717508023865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.433845952054241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.373649546360483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.303043940403455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-8C17-4268-882F-E65329781C65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>на регресію 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$S$5:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$Y$5:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>97.746956059596556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.676350453639515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.616154047945756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.569282491976139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.539608118041883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.532217368902167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.553604230852585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.611599268163971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.714708041810752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.870585263850487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.083893534527178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.354632853840812</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.678140621547428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.046762125589424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.451991804992389</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.885999095485481</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.342290010773119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.815778108096126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.302591055143267</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.799813202453677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-8C17-4268-882F-E65329781C65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>прогнозне значення</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="tri">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="lgDashDotDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$S$5:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$AA$5:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>84.527229433679125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.849268447565265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.160297449622618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.459964773457557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.747947083207549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.023954842562304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.287737522634259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.539088348422268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.777848386234879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.003909790862572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.217218061539263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.417773198264946</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.605629701805725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.780895417371092</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.943729278652519</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.094338060651147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.23297229225453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.359921509772974</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.475509049069011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.580086576536257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-8C17-4268-882F-E65329781C65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>прогнозне значення 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="lgDashDotDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$S$5:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$AB$5:$AB$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>103.46991342346375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.57449095093099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.690078490227023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.817027707745467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.955661939348857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.106270721347485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.269104582628913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.444370298194286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.632226801735058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.832781938460755</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.046090209137446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.272151613765118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.510911651577729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.762262477365738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.026045157437693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.302052916792455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.590035226542454</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.889702550377393</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.200731552434739</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.522770566320872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-8C17-4268-882F-E65329781C65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="272171776"/>
+        <c:axId val="377884016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="272171776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377884016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377884016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272171776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Діагностична</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> діаграма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4261592300962376E-2"/>
+          <c:y val="0.12696617886634676"/>
+          <c:w val="0.83650918635170601"/>
+          <c:h val="0.83537871281524356"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>93.998571428571438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.211879699248129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.425187969924821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.638496240601512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.851804511278203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.065112781954895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.278421052631586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.491729323308277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.705037593984969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.91834586466166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.131654135338351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.344962406015036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.558270676691727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.771578947368418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.98488721804511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.198195488721801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.411503759398492</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.624812030075184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.838120300751875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.051428571428566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$O$3:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.89857142857144368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78812030075187067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1251879699248235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7615037593984937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0518045112782062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9651127819549004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.778421052631586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9082706766917283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.694962406015037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.2183458646616572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.7316541353383528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.444962406015037</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9417293233082731</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5284210526315789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1151127819548918</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.9981954887217981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.0115037593984937</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.1248120300751836</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.8120300751877778E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6485714285714366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69FA-438A-A6AD-ADBC847CD774}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="451161952"/>
+        <c:axId val="423787920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="451161952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423787920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423787920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451161952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -862,7 +2792,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1419,6 +4461,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EA4F6D-6BEA-4A16-A6CA-4C51A5F7C754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEB2035-FC4E-43DD-8037-DE2FB48CD319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -3956,18 +7075,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D369E1F8-8E6B-4CB9-A205-DFDD95DC900B}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>57</v>
       </c>
@@ -3975,7 +7099,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -4010,8 +7134,30 @@
       <c r="P2" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="27"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4050,8 +7196,18 @@
         <f>POWER(O3,2)</f>
         <v>0.80743061224492507</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4090,8 +7246,32 @@
         <f t="shared" ref="P4:P22" si="1">POWER(O4,2)</f>
         <v>0.6211336084572191</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4123,8 +7303,43 @@
         <f t="shared" si="1"/>
         <v>1.2660479676635454</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="U5" s="22">
+        <f>$H$4+$H$3*S5</f>
+        <v>93.998571428571438</v>
+      </c>
+      <c r="V5" s="23"/>
+      <c r="W5" s="28">
+        <f>SQRT($L$28+POWER($H$8*B26,2))</f>
+        <v>1.7849450623929111</v>
+      </c>
+      <c r="X5" s="4">
+        <f>U5-$H$1*W5</f>
+        <v>90.25018679754632</v>
+      </c>
+      <c r="Y5" s="28">
+        <f>U5+$H$1*W5</f>
+        <v>97.746956059596556</v>
+      </c>
+      <c r="Z5" s="30">
+        <f>SQRT(POWER(W5,2)+$H$6)</f>
+        <v>4.5101628547106234</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>U5-$H$1*Z5</f>
+        <v>84.527229433679125</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>U5+$H$1*Z5</f>
+        <v>103.46991342346375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4145,6 +7360,7 @@
         <f>1/(E2-2)*P23</f>
         <v>17.155540100250644</v>
       </c>
+      <c r="J6" s="26"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -4163,8 +7379,43 @@
         <f t="shared" si="1"/>
         <v>33.194925569562976</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>92</v>
+      </c>
+      <c r="U6" s="22">
+        <f t="shared" ref="U6:U24" si="2">$H$4+$H$3*S6</f>
+        <v>91.211879699248129</v>
+      </c>
+      <c r="V6" s="23"/>
+      <c r="W6" s="28">
+        <f t="shared" ref="W6:W24" si="3">SQRT($L$28+POWER($H$8*B27,2))</f>
+        <v>1.6497479782816145</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" ref="X6:X24" si="4">U6-$H$1*W6</f>
+        <v>87.747408944856744</v>
+      </c>
+      <c r="Y6" s="28">
+        <f t="shared" ref="Y6:Y24" si="5">U6+$H$1*W6</f>
+        <v>94.676350453639515</v>
+      </c>
+      <c r="Z6" s="30">
+        <f t="shared" ref="Z6:Z24" si="6">SQRT(POWER(W6,2)+$H$6)</f>
+        <v>4.4583863103251744</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" ref="AA6:AA24" si="7">U6-$H$1*Z6</f>
+        <v>81.849268447565265</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ref="AB6:AB24" si="8">U6+$H$1*Z6</f>
+        <v>100.57449095093099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4203,8 +7454,43 @@
         <f t="shared" si="1"/>
         <v>1.1062927299451861</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" si="2"/>
+        <v>88.425187969924821</v>
+      </c>
+      <c r="V7" s="23"/>
+      <c r="W7" s="28">
+        <f t="shared" si="3"/>
+        <v>1.5195076562004477</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="4"/>
+        <v>85.234221891903886</v>
+      </c>
+      <c r="Y7" s="28">
+        <f t="shared" si="5"/>
+        <v>91.616154047945756</v>
+      </c>
+      <c r="Z7" s="30">
+        <f t="shared" si="6"/>
+        <v>4.4118526287153363</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="7"/>
+        <v>79.160297449622618</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="8"/>
+        <v>97.690078490227023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4236,8 +7522,43 @@
         <f t="shared" si="1"/>
         <v>15.72211937362213</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>91.4</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="2"/>
+        <v>85.638496240601512</v>
+      </c>
+      <c r="V8" s="23"/>
+      <c r="W8" s="28">
+        <f t="shared" si="3"/>
+        <v>1.3956125006545848</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="4"/>
+        <v>82.707709989226885</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" si="5"/>
+        <v>88.569282491976139</v>
+      </c>
+      <c r="Z8" s="30">
+        <f t="shared" si="6"/>
+        <v>4.3707292700685532</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="7"/>
+        <v>76.459964773457557</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" si="8"/>
+        <v>94.817027707745467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4266,8 +7587,43 @@
         <f t="shared" si="1"/>
         <v>7.7196235457064102</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S9" s="1">
+        <v>5</v>
+      </c>
+      <c r="T9" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="U9" s="22">
+        <f t="shared" si="2"/>
+        <v>82.851804511278203</v>
+      </c>
+      <c r="V9" s="23"/>
+      <c r="W9" s="28">
+        <f t="shared" si="3"/>
+        <v>1.2799064794112776</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="4"/>
+        <v>80.164000904514523</v>
+      </c>
+      <c r="Y9" s="28">
+        <f t="shared" si="5"/>
+        <v>85.539608118041883</v>
+      </c>
+      <c r="Z9" s="30">
+        <f t="shared" si="6"/>
+        <v>4.3351702038431679</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="7"/>
+        <v>73.747947083207549</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="8"/>
+        <v>91.955661939348857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4303,8 +7659,43 @@
         <f t="shared" si="1"/>
         <v>8.4580383289049639</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S10" s="1">
+        <v>6</v>
+      </c>
+      <c r="T10" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="U10" s="22">
+        <f t="shared" si="2"/>
+        <v>80.065112781954895</v>
+      </c>
+      <c r="V10" s="23"/>
+      <c r="W10" s="28">
+        <f t="shared" si="3"/>
+        <v>1.1748117080701319</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="4"/>
+        <v>77.598008195007623</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" si="5"/>
+        <v>82.532217368902167</v>
+      </c>
+      <c r="Z10" s="30">
+        <f t="shared" si="6"/>
+        <v>4.3053133044726613</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="7"/>
+        <v>71.023954842562304</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="8"/>
+        <v>89.106270721347485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4336,8 +7727,43 @@
         <f t="shared" si="1"/>
         <v>7.2628223698343568</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S11" s="1">
+        <v>7</v>
+      </c>
+      <c r="T11" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="U11" s="22">
+        <f t="shared" si="2"/>
+        <v>77.278421052631586</v>
+      </c>
+      <c r="V11" s="23"/>
+      <c r="W11" s="28">
+        <f t="shared" si="3"/>
+        <v>1.083420561057622</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="4"/>
+        <v>75.003237874410587</v>
+      </c>
+      <c r="Y11" s="28">
+        <f t="shared" si="5"/>
+        <v>79.553604230852585</v>
+      </c>
+      <c r="Z11" s="30">
+        <f t="shared" si="6"/>
+        <v>4.2812778714272977</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="7"/>
+        <v>68.287737522634259</v>
+      </c>
+      <c r="AB11" s="4">
+        <f t="shared" si="8"/>
+        <v>86.269104582628913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4362,8 +7788,43 @@
         <f t="shared" si="1"/>
         <v>17.794441833908103</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S12" s="1">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="2"/>
+        <v>74.491729323308277</v>
+      </c>
+      <c r="V12" s="23"/>
+      <c r="W12" s="28">
+        <f t="shared" si="3"/>
+        <v>1.009461878502713</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="4"/>
+        <v>72.371859378452584</v>
+      </c>
+      <c r="Y12" s="28">
+        <f t="shared" si="5"/>
+        <v>76.611599268163971</v>
+      </c>
+      <c r="Z12" s="30">
+        <f t="shared" si="6"/>
+        <v>4.2631623689933358</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="7"/>
+        <v>65.539088348422268</v>
+      </c>
+      <c r="AB12" s="4">
+        <f t="shared" si="8"/>
+        <v>83.444370298194286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4395,8 +7856,43 @@
         <f t="shared" si="1"/>
         <v>22.388550856464533</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S13" s="1">
+        <v>9</v>
+      </c>
+      <c r="T13" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="2"/>
+        <v>71.705037593984969</v>
+      </c>
+      <c r="V13" s="23"/>
+      <c r="W13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.95698592753608558</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="4"/>
+        <v>69.695367146159185</v>
+      </c>
+      <c r="Y13" s="28">
+        <f t="shared" si="5"/>
+        <v>73.714708041810752</v>
+      </c>
+      <c r="Z13" s="30">
+        <f t="shared" si="6"/>
+        <v>4.2510424798809936</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="7"/>
+        <v>62.777848386234879</v>
+      </c>
+      <c r="AB13" s="4">
+        <f t="shared" si="8"/>
+        <v>80.632226801735058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4428,8 +7924,43 @@
         <f t="shared" si="1"/>
         <v>5.9778411668268383</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S14" s="1">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="2"/>
+        <v>68.91834586466166</v>
+      </c>
+      <c r="V14" s="23"/>
+      <c r="W14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.92963780913753713</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="4"/>
+        <v>66.966106465472834</v>
+      </c>
+      <c r="Y14" s="28">
+        <f t="shared" si="5"/>
+        <v>70.870585263850487</v>
+      </c>
+      <c r="Z14" s="30">
+        <f t="shared" si="6"/>
+        <v>4.2449695589519472</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="7"/>
+        <v>60.003909790862572</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="8"/>
+        <v>77.832781938460755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4454,8 +7985,43 @@
         <f t="shared" si="1"/>
         <v>98.83798193792758</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S15" s="1">
+        <v>11</v>
+      </c>
+      <c r="T15" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="U15" s="22">
+        <f t="shared" si="2"/>
+        <v>66.131654135338351</v>
+      </c>
+      <c r="V15" s="23"/>
+      <c r="W15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.92963780913753713</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="4"/>
+        <v>64.179414736149525</v>
+      </c>
+      <c r="Y15" s="28">
+        <f t="shared" si="5"/>
+        <v>68.083893534527178</v>
+      </c>
+      <c r="Z15" s="30">
+        <f t="shared" si="6"/>
+        <v>4.2449695589519472</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="7"/>
+        <v>57.217218061539263</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="8"/>
+        <v>75.046090209137446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4487,8 +8053,43 @@
         <f t="shared" si="1"/>
         <v>30.563439335180053</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S16" s="1">
+        <v>12</v>
+      </c>
+      <c r="T16" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="2"/>
+        <v>63.344962406015036</v>
+      </c>
+      <c r="V16" s="23"/>
+      <c r="W16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.95698592753608558</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="4"/>
+        <v>61.335291958189259</v>
+      </c>
+      <c r="Y16" s="28">
+        <f t="shared" si="5"/>
+        <v>65.354632853840812</v>
+      </c>
+      <c r="Z16" s="30">
+        <f t="shared" si="6"/>
+        <v>4.2510424798809936</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="7"/>
+        <v>54.417773198264946</v>
+      </c>
+      <c r="AB16" s="4">
+        <f t="shared" si="8"/>
+        <v>72.272151613765118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4516,8 +8117,43 @@
         <f t="shared" si="1"/>
         <v>4.4737020803889616</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S17" s="1">
+        <v>13</v>
+      </c>
+      <c r="T17" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" si="2"/>
+        <v>60.558270676691727</v>
+      </c>
+      <c r="V17" s="23"/>
+      <c r="W17" s="28">
+        <f t="shared" si="3"/>
+        <v>1.009461878502713</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="4"/>
+        <v>58.438400731836026</v>
+      </c>
+      <c r="Y17" s="28">
+        <f t="shared" si="5"/>
+        <v>62.678140621547428</v>
+      </c>
+      <c r="Z17" s="30">
+        <f t="shared" si="6"/>
+        <v>4.2631623689933358</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="7"/>
+        <v>51.605629701805725</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="8"/>
+        <v>69.510911651577729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4542,8 +8178,43 @@
         <f t="shared" si="1"/>
         <v>24.981958143478934</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S18" s="1">
+        <v>14</v>
+      </c>
+      <c r="T18" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="2"/>
+        <v>57.771578947368418</v>
+      </c>
+      <c r="V18" s="23"/>
+      <c r="W18" s="28">
+        <f t="shared" si="3"/>
+        <v>1.083420561057622</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="4"/>
+        <v>55.496395769147412</v>
+      </c>
+      <c r="Y18" s="28">
+        <f t="shared" si="5"/>
+        <v>60.046762125589424</v>
+      </c>
+      <c r="Z18" s="30">
+        <f t="shared" si="6"/>
+        <v>4.2812778714272977</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="7"/>
+        <v>48.780895417371092</v>
+      </c>
+      <c r="AB18" s="4">
+        <f t="shared" si="8"/>
+        <v>66.762262477365738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4575,8 +8246,43 @@
         <f t="shared" si="1"/>
         <v>16.092162411668248</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S19" s="1">
+        <v>15</v>
+      </c>
+      <c r="T19" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" si="2"/>
+        <v>54.98488721804511</v>
+      </c>
+      <c r="V19" s="23"/>
+      <c r="W19" s="28">
+        <f t="shared" si="3"/>
+        <v>1.1748117080701319</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="4"/>
+        <v>52.51778263109783</v>
+      </c>
+      <c r="Y19" s="28">
+        <f t="shared" si="5"/>
+        <v>57.451991804992389</v>
+      </c>
+      <c r="Z19" s="30">
+        <f t="shared" si="6"/>
+        <v>4.3053133044726613</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="7"/>
+        <v>45.943729278652519</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="8"/>
+        <v>64.026045157437693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4604,8 +8310,43 @@
         <f t="shared" si="1"/>
         <v>4.5148261631522226</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S20" s="1">
+        <v>16</v>
+      </c>
+      <c r="T20" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="U20" s="22">
+        <f t="shared" si="2"/>
+        <v>52.198195488721801</v>
+      </c>
+      <c r="V20" s="23"/>
+      <c r="W20" s="28">
+        <f t="shared" si="3"/>
+        <v>1.2799064794112776</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="4"/>
+        <v>49.510391881958121</v>
+      </c>
+      <c r="Y20" s="28">
+        <f t="shared" si="5"/>
+        <v>54.885999095485481</v>
+      </c>
+      <c r="Z20" s="30">
+        <f t="shared" si="6"/>
+        <v>4.3351702038431679</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="7"/>
+        <v>43.094338060651147</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" si="8"/>
+        <v>61.302052916792455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4630,8 +8371,43 @@
         <f t="shared" si="1"/>
         <v>1.4531573294136134E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S21" s="1">
+        <v>17</v>
+      </c>
+      <c r="T21" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="U21" s="22">
+        <f t="shared" si="2"/>
+        <v>49.411503759398492</v>
+      </c>
+      <c r="V21" s="23"/>
+      <c r="W21" s="28">
+        <f t="shared" si="3"/>
+        <v>1.3956125006545848</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="4"/>
+        <v>46.480717508023865</v>
+      </c>
+      <c r="Y21" s="28">
+        <f t="shared" si="5"/>
+        <v>52.342290010773119</v>
+      </c>
+      <c r="Z21" s="30">
+        <f t="shared" si="6"/>
+        <v>4.3707292700685532</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="7"/>
+        <v>40.23297229225453</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="8"/>
+        <v>58.590035226542454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4656,8 +8432,43 @@
         <f t="shared" si="1"/>
         <v>7.0149306122449406</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S22" s="1">
+        <v>18</v>
+      </c>
+      <c r="T22" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="U22" s="22">
+        <f t="shared" si="2"/>
+        <v>46.624812030075184</v>
+      </c>
+      <c r="V22" s="23"/>
+      <c r="W22" s="28">
+        <f t="shared" si="3"/>
+        <v>1.5195076562004477</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="4"/>
+        <v>43.433845952054241</v>
+      </c>
+      <c r="Y22" s="28">
+        <f t="shared" si="5"/>
+        <v>49.815778108096126</v>
+      </c>
+      <c r="Z22" s="30">
+        <f t="shared" si="6"/>
+        <v>4.4118526287153363</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="7"/>
+        <v>37.359921509772974</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="8"/>
+        <v>55.889702550377393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O23" t="s">
         <v>9</v>
       </c>
@@ -4665,8 +8476,80 @@
         <f>SUM(P3:P22)</f>
         <v>308.79972180451159</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S23" s="1">
+        <v>19</v>
+      </c>
+      <c r="T23" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="U23" s="22">
+        <f t="shared" si="2"/>
+        <v>43.838120300751875</v>
+      </c>
+      <c r="V23" s="23"/>
+      <c r="W23" s="28">
+        <f t="shared" si="3"/>
+        <v>1.6497479782816145</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="4"/>
+        <v>40.373649546360483</v>
+      </c>
+      <c r="Y23" s="28">
+        <f t="shared" si="5"/>
+        <v>47.302591055143267</v>
+      </c>
+      <c r="Z23" s="30">
+        <f t="shared" si="6"/>
+        <v>4.4583863103251744</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="7"/>
+        <v>34.475509049069011</v>
+      </c>
+      <c r="AB23" s="4">
+        <f t="shared" si="8"/>
+        <v>53.200731552434739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S24" s="1">
+        <v>20</v>
+      </c>
+      <c r="T24" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="U24" s="22">
+        <f t="shared" si="2"/>
+        <v>41.051428571428566</v>
+      </c>
+      <c r="V24" s="23"/>
+      <c r="W24" s="28">
+        <f t="shared" si="3"/>
+        <v>1.7849450623929111</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="4"/>
+        <v>37.303043940403455</v>
+      </c>
+      <c r="Y24" s="28">
+        <f t="shared" si="5"/>
+        <v>44.799813202453677</v>
+      </c>
+      <c r="Z24" s="30">
+        <f t="shared" si="6"/>
+        <v>4.5101628547106234</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="7"/>
+        <v>31.580086576536257</v>
+      </c>
+      <c r="AB24" s="4">
+        <f t="shared" si="8"/>
+        <v>50.522770566320872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>0</v>
       </c>
@@ -4690,7 +8573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -4718,7 +8601,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -4727,7 +8610,7 @@
         <v>-8.5</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C45" si="2">POWER(B27,2)</f>
+        <f t="shared" ref="C27:C45" si="9">POWER(B27,2)</f>
         <v>72.25</v>
       </c>
       <c r="E27" s="1">
@@ -4738,15 +8621,15 @@
         <v>24.474999999999994</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:G45" si="3">POWER(F27,2)</f>
+        <f t="shared" ref="G27:G45" si="10">POWER(F27,2)</f>
         <v>599.02562499999976</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I45" si="4">A27*E27</f>
+        <f t="shared" ref="I27:I45" si="11">A27*E27</f>
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -4755,7 +8638,7 @@
         <v>-7.5</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>56.25</v>
       </c>
       <c r="E28" s="1">
@@ -4766,15 +8649,19 @@
         <v>19.774999999999991</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>391.05062499999968</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>261.89999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L28" s="4">
+        <f>H6/E2</f>
+        <v>0.85777700501253218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -4783,7 +8670,7 @@
         <v>-6.5</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>42.25</v>
       </c>
       <c r="E29" s="1">
@@ -4794,15 +8681,15 @@
         <v>23.875</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>570.015625</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>365.6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -4811,7 +8698,7 @@
         <v>-5.5</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>30.25</v>
       </c>
       <c r="E30" s="1">
@@ -4822,15 +8709,15 @@
         <v>14.274999999999991</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>203.77562499999976</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>409</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -4839,7 +8726,7 @@
         <v>-4.5</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>20.25</v>
       </c>
       <c r="E31" s="1">
@@ -4850,15 +8737,17 @@
         <v>8.5749999999999886</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>73.530624999999802</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>456.59999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -4867,7 +8756,7 @@
         <v>-3.5</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>12.25</v>
       </c>
       <c r="E32" s="1">
@@ -4878,11 +8767,11 @@
         <v>6.9749999999999943</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>48.65062499999992</v>
       </c>
       <c r="I32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>521.5</v>
       </c>
     </row>
@@ -4895,7 +8784,7 @@
         <v>-2.5</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
       <c r="E33" s="1">
@@ -4906,11 +8795,11 @@
         <v>9.875</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>97.515625</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>619.20000000000005</v>
       </c>
     </row>
@@ -4923,7 +8812,7 @@
         <v>-1.5</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
       <c r="E34" s="1">
@@ -4934,11 +8823,11 @@
         <v>6.875</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>47.265625</v>
       </c>
       <c r="I34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>669.6</v>
       </c>
     </row>
@@ -4951,7 +8840,7 @@
         <v>-0.5</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="E35" s="1">
@@ -4962,11 +8851,11 @@
         <v>-2.8250000000000028</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>7.9806250000000158</v>
       </c>
       <c r="I35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>647</v>
       </c>
     </row>
@@ -4979,7 +8868,7 @@
         <v>0.5</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="E36" s="1">
@@ -4990,11 +8879,11 @@
         <v>-6.1250000000000071</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>37.515625000000085</v>
       </c>
       <c r="I36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>675.4</v>
       </c>
     </row>
@@ -5007,7 +8896,7 @@
         <v>1.5</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
       <c r="E37" s="1">
@@ -5018,11 +8907,11 @@
         <v>-6.6250000000000071</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>43.890625000000092</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>730.8</v>
       </c>
     </row>
@@ -5035,7 +8924,7 @@
         <v>2.5</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
       <c r="E38" s="1">
@@ -5046,11 +8935,11 @@
         <v>2.9749999999999943</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>8.8506249999999653</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>916.5</v>
       </c>
     </row>
@@ -5063,7 +8952,7 @@
         <v>3.5</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>12.25</v>
       </c>
       <c r="E39" s="1">
@@ -5074,11 +8963,11 @@
         <v>-4.2250000000000085</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>17.850625000000072</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>886.19999999999993</v>
       </c>
     </row>
@@ -5091,7 +8980,7 @@
         <v>4.5</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>20.25</v>
       </c>
       <c r="E40" s="1">
@@ -5102,7 +8991,7 @@
         <v>-10.425000000000004</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>108.68062500000009</v>
       </c>
       <c r="I40">
@@ -5119,7 +9008,7 @@
         <v>5.5</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>30.25</v>
       </c>
       <c r="E41" s="1">
@@ -5130,11 +9019,11 @@
         <v>-20.325000000000003</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>413.10562500000009</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>755.2</v>
       </c>
     </row>
@@ -5147,7 +9036,7 @@
         <v>6.5</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>42.25</v>
       </c>
       <c r="E42" s="1">
@@ -5158,11 +9047,11 @@
         <v>-22.125000000000007</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>489.51562500000034</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>771.8</v>
       </c>
     </row>
@@ -5175,7 +9064,7 @@
         <v>7.5</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>56.25</v>
       </c>
       <c r="E43" s="1">
@@ -5186,11 +9075,11 @@
         <v>-23.025000000000006</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>530.15062500000022</v>
       </c>
       <c r="I43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>801</v>
       </c>
     </row>
@@ -5203,7 +9092,7 @@
         <v>8.5</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>72.25</v>
       </c>
       <c r="E44" s="1">
@@ -5214,11 +9103,11 @@
         <v>-23.725000000000009</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>562.87562500000035</v>
       </c>
       <c r="I44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>832.19999999999993</v>
       </c>
     </row>
@@ -5231,7 +9120,7 @@
         <v>9.5</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>90.25</v>
       </c>
       <c r="E45" s="1">
@@ -5242,11 +9131,11 @@
         <v>-23.825000000000003</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>567.63062500000012</v>
       </c>
       <c r="I45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>874</v>
       </c>
     </row>
@@ -5264,6 +9153,12 @@
       <c r="G46" s="10">
         <f>SUM(G26:G45)</f>
         <v>5472.9574999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="4">
+        <f>G46/E2</f>
+        <v>273.647875</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.25">
@@ -5284,7 +9179,7 @@
         <v>3.7019849690014541</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E66">
         <f>E2*POWER(E5,2)</f>
         <v>665.00000000000011</v>
@@ -5294,8 +9189,401 @@
         <v>2.5797804662031038E-2</v>
       </c>
     </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="11">
+        <f>D94/H6</f>
+        <v>301.01983079623602</v>
+      </c>
+      <c r="I73" t="s">
+        <v>78</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="C74" s="4">
+        <f>$H$4+$H$3*L3</f>
+        <v>93.998571428571438</v>
+      </c>
+      <c r="D74" s="4">
+        <f>POWER(C74-$E$4,2)</f>
+        <v>700.84998418367366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1">
+        <v>92</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" ref="C75:C93" si="12">$H$4+$H$3*L4</f>
+        <v>91.211879699248129</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" ref="D75:D93" si="13">POWER(C75-$E$4,2)</f>
+        <v>561.06826988665284</v>
+      </c>
+      <c r="F75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="8">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="12"/>
+        <v>88.425187969924821</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="13"/>
+        <v>436.81785717818997</v>
+      </c>
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="11">
+        <f>(1-P80)*100</f>
+        <v>94.357717526501688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <v>91.4</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="12"/>
+        <v>85.638496240601512</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="13"/>
+        <v>328.09874605828492</v>
+      </c>
+      <c r="P77" s="4"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="12"/>
+        <v>82.851804511278203</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="13"/>
+        <v>234.91093652693772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="12"/>
+        <v>80.065112781954895</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="13"/>
+        <v>157.25442858414837</v>
+      </c>
+      <c r="P79" s="4">
+        <f>18*H6</f>
+        <v>308.79972180451159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>7</v>
+      </c>
+      <c r="B80" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="12"/>
+        <v>77.278421052631586</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="13"/>
+        <v>95.12922222991692</v>
+      </c>
+      <c r="P80" s="3">
+        <f>P79/(E2*G48)</f>
+        <v>5.6422824734983154E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="12"/>
+        <v>74.491729323308277</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="13"/>
+        <v>48.535317464243327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="12"/>
+        <v>71.705037593984969</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="13"/>
+        <v>17.472714287127598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="12"/>
+        <v>68.91834586466166</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="13"/>
+        <v>1.9414126985697331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>11</v>
+      </c>
+      <c r="B84" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="12"/>
+        <v>66.131654135338351</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="13"/>
+        <v>1.9414126985697331</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="12"/>
+        <v>63.344962406015036</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="13"/>
+        <v>17.472714287127658</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="12"/>
+        <v>60.558270676691727</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" si="13"/>
+        <v>48.535317464243427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>14</v>
+      </c>
+      <c r="B87" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="12"/>
+        <v>57.771578947368418</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="13"/>
+        <v>95.129222229917062</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="12"/>
+        <v>54.98488721804511</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="13"/>
+        <v>157.25442858414857</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>16</v>
+      </c>
+      <c r="B89" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="12"/>
+        <v>52.198195488721801</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="13"/>
+        <v>234.91093652693792</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>17</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="12"/>
+        <v>49.411503759398492</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="13"/>
+        <v>328.09874605828514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>18</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="12"/>
+        <v>46.624812030075184</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="13"/>
+        <v>436.81785717819025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>19</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="12"/>
+        <v>43.838120300751875</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="13"/>
+        <v>561.06826988665318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>20</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="12"/>
+        <v>41.051428571428566</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="13"/>
+        <v>700.849984183674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="10">
+        <f>SUM(D74:D93)</f>
+        <v>5164.1577781954911</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="X2:Y3"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:U3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Geology/8.xlsx
+++ b/Geology/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962631E-3C51-4D56-A087-E917D6BA06BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D4A88-9BA2-4100-BB6E-DB05C9F65EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
@@ -420,9 +420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -434,13 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,6 +439,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2119,7 +2119,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2752,6 +2751,608 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30945822397200351"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$L$3:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$M$3:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20F5-43D3-BF14-16B0138934D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ряд 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10-12'!$L$3:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10-12'!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>93.998571428571438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.211879699248129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.425187969924821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.638496240601512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.851804511278203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.065112781954895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.278421052631586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.491729323308277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.705037593984969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.91834586466166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.131654135338351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.344962406015036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.558270676691727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.771578947368418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.98488721804511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.198195488721801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.411503759398492</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.624812030075184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.838120300751875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.051428571428566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-20F5-43D3-BF14-16B0138934D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1786639680"/>
+        <c:axId val="1445813024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1786639680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445813024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1445813024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786639680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2872,6 +3473,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3905,6 +4546,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4530,6 +5687,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7146F03F-E9C0-4CCF-8720-D25DEDB9C977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7078,7 +8271,7 @@
   <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O100" sqref="O100"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7134,28 +8327,28 @@
       <c r="P2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20" t="s">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30" t="s">
         <v>66</v>
       </c>
       <c r="V2" s="19"/>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="25" t="s">
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="27"/>
+      <c r="AB2" s="28"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -7196,16 +8389,16 @@
         <f>POWER(O3,2)</f>
         <v>0.80743061224492507</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
       <c r="V3" s="19"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -7252,22 +8445,22 @@
       <c r="T4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="29" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="Y4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="29" t="s">
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="26" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7309,12 +8502,12 @@
       <c r="T5" s="1">
         <v>93.1</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <f>$H$4+$H$3*S5</f>
         <v>93.998571428571438</v>
       </c>
-      <c r="V5" s="23"/>
-      <c r="W5" s="28">
+      <c r="V5" s="22"/>
+      <c r="W5" s="25">
         <f>SQRT($L$28+POWER($H$8*B26,2))</f>
         <v>1.7849450623929111</v>
       </c>
@@ -7322,11 +8515,11 @@
         <f>U5-$H$1*W5</f>
         <v>90.25018679754632</v>
       </c>
-      <c r="Y5" s="28">
+      <c r="Y5" s="25">
         <f>U5+$H$1*W5</f>
         <v>97.746956059596556</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="27">
         <f>SQRT(POWER(W5,2)+$H$6)</f>
         <v>4.5101628547106234</v>
       </c>
@@ -7360,7 +8553,7 @@
         <f>1/(E2-2)*P23</f>
         <v>17.155540100250644</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="24"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -7385,12 +8578,12 @@
       <c r="T6" s="1">
         <v>92</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="21">
         <f t="shared" ref="U6:U24" si="2">$H$4+$H$3*S6</f>
         <v>91.211879699248129</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="28">
+      <c r="V6" s="22"/>
+      <c r="W6" s="25">
         <f t="shared" ref="W6:W24" si="3">SQRT($L$28+POWER($H$8*B27,2))</f>
         <v>1.6497479782816145</v>
       </c>
@@ -7398,11 +8591,11 @@
         <f t="shared" ref="X6:X24" si="4">U6-$H$1*W6</f>
         <v>87.747408944856744</v>
       </c>
-      <c r="Y6" s="28">
+      <c r="Y6" s="25">
         <f t="shared" ref="Y6:Y24" si="5">U6+$H$1*W6</f>
         <v>94.676350453639515</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="27">
         <f t="shared" ref="Z6:Z24" si="6">SQRT(POWER(W6,2)+$H$6)</f>
         <v>4.4583863103251744</v>
       </c>
@@ -7460,12 +8653,12 @@
       <c r="T7" s="1">
         <v>87.3</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="21">
         <f t="shared" si="2"/>
         <v>88.425187969924821</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="28">
+      <c r="V7" s="22"/>
+      <c r="W7" s="25">
         <f t="shared" si="3"/>
         <v>1.5195076562004477</v>
       </c>
@@ -7473,11 +8666,11 @@
         <f t="shared" si="4"/>
         <v>85.234221891903886</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="25">
         <f t="shared" si="5"/>
         <v>91.616154047945756</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="27">
         <f t="shared" si="6"/>
         <v>4.4118526287153363</v>
       </c>
@@ -7528,12 +8721,12 @@
       <c r="T8" s="1">
         <v>91.4</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="21">
         <f t="shared" si="2"/>
         <v>85.638496240601512</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="28">
+      <c r="V8" s="22"/>
+      <c r="W8" s="25">
         <f t="shared" si="3"/>
         <v>1.3956125006545848</v>
       </c>
@@ -7541,11 +8734,11 @@
         <f t="shared" si="4"/>
         <v>82.707709989226885</v>
       </c>
-      <c r="Y8" s="28">
+      <c r="Y8" s="25">
         <f t="shared" si="5"/>
         <v>88.569282491976139</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="27">
         <f t="shared" si="6"/>
         <v>4.3707292700685532</v>
       </c>
@@ -7593,12 +8786,12 @@
       <c r="T9" s="1">
         <v>81.8</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="21">
         <f t="shared" si="2"/>
         <v>82.851804511278203</v>
       </c>
-      <c r="V9" s="23"/>
-      <c r="W9" s="28">
+      <c r="V9" s="22"/>
+      <c r="W9" s="25">
         <f t="shared" si="3"/>
         <v>1.2799064794112776</v>
       </c>
@@ -7606,11 +8799,11 @@
         <f t="shared" si="4"/>
         <v>80.164000904514523</v>
       </c>
-      <c r="Y9" s="28">
+      <c r="Y9" s="25">
         <f t="shared" si="5"/>
         <v>85.539608118041883</v>
       </c>
-      <c r="Z9" s="30">
+      <c r="Z9" s="27">
         <f t="shared" si="6"/>
         <v>4.3351702038431679</v>
       </c>
@@ -7665,12 +8858,12 @@
       <c r="T10" s="1">
         <v>76.099999999999994</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="21">
         <f t="shared" si="2"/>
         <v>80.065112781954895</v>
       </c>
-      <c r="V10" s="23"/>
-      <c r="W10" s="28">
+      <c r="V10" s="22"/>
+      <c r="W10" s="25">
         <f t="shared" si="3"/>
         <v>1.1748117080701319</v>
       </c>
@@ -7678,11 +8871,11 @@
         <f t="shared" si="4"/>
         <v>77.598008195007623</v>
       </c>
-      <c r="Y10" s="28">
+      <c r="Y10" s="25">
         <f t="shared" si="5"/>
         <v>82.532217368902167</v>
       </c>
-      <c r="Z10" s="30">
+      <c r="Z10" s="27">
         <f t="shared" si="6"/>
         <v>4.3053133044726613</v>
       </c>
@@ -7733,12 +8926,12 @@
       <c r="T11" s="1">
         <v>74.5</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="21">
         <f t="shared" si="2"/>
         <v>77.278421052631586</v>
       </c>
-      <c r="V11" s="23"/>
-      <c r="W11" s="28">
+      <c r="V11" s="22"/>
+      <c r="W11" s="25">
         <f t="shared" si="3"/>
         <v>1.083420561057622</v>
       </c>
@@ -7746,11 +8939,11 @@
         <f t="shared" si="4"/>
         <v>75.003237874410587</v>
       </c>
-      <c r="Y11" s="28">
+      <c r="Y11" s="25">
         <f t="shared" si="5"/>
         <v>79.553604230852585</v>
       </c>
-      <c r="Z11" s="30">
+      <c r="Z11" s="27">
         <f t="shared" si="6"/>
         <v>4.2812778714272977</v>
       </c>
@@ -7794,12 +8987,12 @@
       <c r="T12" s="1">
         <v>77.400000000000006</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="21">
         <f t="shared" si="2"/>
         <v>74.491729323308277</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="28">
+      <c r="V12" s="22"/>
+      <c r="W12" s="25">
         <f t="shared" si="3"/>
         <v>1.009461878502713</v>
       </c>
@@ -7807,11 +9000,11 @@
         <f t="shared" si="4"/>
         <v>72.371859378452584</v>
       </c>
-      <c r="Y12" s="28">
+      <c r="Y12" s="25">
         <f t="shared" si="5"/>
         <v>76.611599268163971</v>
       </c>
-      <c r="Z12" s="30">
+      <c r="Z12" s="27">
         <f t="shared" si="6"/>
         <v>4.2631623689933358</v>
       </c>
@@ -7862,12 +9055,12 @@
       <c r="T13" s="1">
         <v>74.400000000000006</v>
       </c>
-      <c r="U13" s="22">
+      <c r="U13" s="21">
         <f t="shared" si="2"/>
         <v>71.705037593984969</v>
       </c>
-      <c r="V13" s="23"/>
-      <c r="W13" s="28">
+      <c r="V13" s="22"/>
+      <c r="W13" s="25">
         <f t="shared" si="3"/>
         <v>0.95698592753608558</v>
       </c>
@@ -7875,11 +9068,11 @@
         <f t="shared" si="4"/>
         <v>69.695367146159185</v>
       </c>
-      <c r="Y13" s="28">
+      <c r="Y13" s="25">
         <f t="shared" si="5"/>
         <v>73.714708041810752</v>
       </c>
-      <c r="Z13" s="30">
+      <c r="Z13" s="27">
         <f t="shared" si="6"/>
         <v>4.2510424798809936</v>
       </c>
@@ -7930,12 +9123,12 @@
       <c r="T14" s="1">
         <v>64.7</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="21">
         <f t="shared" si="2"/>
         <v>68.91834586466166</v>
       </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="28">
+      <c r="V14" s="22"/>
+      <c r="W14" s="25">
         <f t="shared" si="3"/>
         <v>0.92963780913753713</v>
       </c>
@@ -7943,11 +9136,11 @@
         <f t="shared" si="4"/>
         <v>66.966106465472834</v>
       </c>
-      <c r="Y14" s="28">
+      <c r="Y14" s="25">
         <f t="shared" si="5"/>
         <v>70.870585263850487</v>
       </c>
-      <c r="Z14" s="30">
+      <c r="Z14" s="27">
         <f t="shared" si="6"/>
         <v>4.2449695589519472</v>
       </c>
@@ -7991,12 +9184,12 @@
       <c r="T15" s="1">
         <v>61.4</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="21">
         <f t="shared" si="2"/>
         <v>66.131654135338351</v>
       </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="28">
+      <c r="V15" s="22"/>
+      <c r="W15" s="25">
         <f t="shared" si="3"/>
         <v>0.92963780913753713</v>
       </c>
@@ -8004,11 +9197,11 @@
         <f t="shared" si="4"/>
         <v>64.179414736149525</v>
       </c>
-      <c r="Y15" s="28">
+      <c r="Y15" s="25">
         <f t="shared" si="5"/>
         <v>68.083893534527178</v>
       </c>
-      <c r="Z15" s="30">
+      <c r="Z15" s="27">
         <f t="shared" si="6"/>
         <v>4.2449695589519472</v>
       </c>
@@ -8059,12 +9252,12 @@
       <c r="T16" s="1">
         <v>60.9</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="21">
         <f t="shared" si="2"/>
         <v>63.344962406015036</v>
       </c>
-      <c r="V16" s="23"/>
-      <c r="W16" s="28">
+      <c r="V16" s="22"/>
+      <c r="W16" s="25">
         <f t="shared" si="3"/>
         <v>0.95698592753608558</v>
       </c>
@@ -8072,11 +9265,11 @@
         <f t="shared" si="4"/>
         <v>61.335291958189259</v>
       </c>
-      <c r="Y16" s="28">
+      <c r="Y16" s="25">
         <f t="shared" si="5"/>
         <v>65.354632853840812</v>
       </c>
-      <c r="Z16" s="30">
+      <c r="Z16" s="27">
         <f t="shared" si="6"/>
         <v>4.2510424798809936</v>
       </c>
@@ -8123,12 +9316,12 @@
       <c r="T17" s="1">
         <v>70.5</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="21">
         <f t="shared" si="2"/>
         <v>60.558270676691727</v>
       </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="28">
+      <c r="V17" s="22"/>
+      <c r="W17" s="25">
         <f t="shared" si="3"/>
         <v>1.009461878502713</v>
       </c>
@@ -8136,11 +9329,11 @@
         <f t="shared" si="4"/>
         <v>58.438400731836026</v>
       </c>
-      <c r="Y17" s="28">
+      <c r="Y17" s="25">
         <f t="shared" si="5"/>
         <v>62.678140621547428</v>
       </c>
-      <c r="Z17" s="30">
+      <c r="Z17" s="27">
         <f t="shared" si="6"/>
         <v>4.2631623689933358</v>
       </c>
@@ -8184,12 +9377,12 @@
       <c r="T18" s="1">
         <v>63.3</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="21">
         <f t="shared" si="2"/>
         <v>57.771578947368418</v>
       </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="28">
+      <c r="V18" s="22"/>
+      <c r="W18" s="25">
         <f t="shared" si="3"/>
         <v>1.083420561057622</v>
       </c>
@@ -8197,11 +9390,11 @@
         <f t="shared" si="4"/>
         <v>55.496395769147412</v>
       </c>
-      <c r="Y18" s="28">
+      <c r="Y18" s="25">
         <f t="shared" si="5"/>
         <v>60.046762125589424</v>
       </c>
-      <c r="Z18" s="30">
+      <c r="Z18" s="27">
         <f t="shared" si="6"/>
         <v>4.2812778714272977</v>
       </c>
@@ -8252,12 +9445,12 @@
       <c r="T19" s="1">
         <v>57.1</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="21">
         <f t="shared" si="2"/>
         <v>54.98488721804511</v>
       </c>
-      <c r="V19" s="23"/>
-      <c r="W19" s="28">
+      <c r="V19" s="22"/>
+      <c r="W19" s="25">
         <f t="shared" si="3"/>
         <v>1.1748117080701319</v>
       </c>
@@ -8265,11 +9458,11 @@
         <f t="shared" si="4"/>
         <v>52.51778263109783</v>
       </c>
-      <c r="Y19" s="28">
+      <c r="Y19" s="25">
         <f t="shared" si="5"/>
         <v>57.451991804992389</v>
       </c>
-      <c r="Z19" s="30">
+      <c r="Z19" s="27">
         <f t="shared" si="6"/>
         <v>4.3053133044726613</v>
       </c>
@@ -8316,12 +9509,12 @@
       <c r="T20" s="1">
         <v>47.2</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="21">
         <f t="shared" si="2"/>
         <v>52.198195488721801</v>
       </c>
-      <c r="V20" s="23"/>
-      <c r="W20" s="28">
+      <c r="V20" s="22"/>
+      <c r="W20" s="25">
         <f t="shared" si="3"/>
         <v>1.2799064794112776</v>
       </c>
@@ -8329,11 +9522,11 @@
         <f t="shared" si="4"/>
         <v>49.510391881958121</v>
       </c>
-      <c r="Y20" s="28">
+      <c r="Y20" s="25">
         <f t="shared" si="5"/>
         <v>54.885999095485481</v>
       </c>
-      <c r="Z20" s="30">
+      <c r="Z20" s="27">
         <f t="shared" si="6"/>
         <v>4.3351702038431679</v>
       </c>
@@ -8377,12 +9570,12 @@
       <c r="T21" s="1">
         <v>45.4</v>
       </c>
-      <c r="U21" s="22">
+      <c r="U21" s="21">
         <f t="shared" si="2"/>
         <v>49.411503759398492</v>
       </c>
-      <c r="V21" s="23"/>
-      <c r="W21" s="28">
+      <c r="V21" s="22"/>
+      <c r="W21" s="25">
         <f t="shared" si="3"/>
         <v>1.3956125006545848</v>
       </c>
@@ -8390,11 +9583,11 @@
         <f t="shared" si="4"/>
         <v>46.480717508023865</v>
       </c>
-      <c r="Y21" s="28">
+      <c r="Y21" s="25">
         <f t="shared" si="5"/>
         <v>52.342290010773119</v>
       </c>
-      <c r="Z21" s="30">
+      <c r="Z21" s="27">
         <f t="shared" si="6"/>
         <v>4.3707292700685532</v>
       </c>
@@ -8438,12 +9631,12 @@
       <c r="T22" s="1">
         <v>44.5</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="21">
         <f t="shared" si="2"/>
         <v>46.624812030075184</v>
       </c>
-      <c r="V22" s="23"/>
-      <c r="W22" s="28">
+      <c r="V22" s="22"/>
+      <c r="W22" s="25">
         <f t="shared" si="3"/>
         <v>1.5195076562004477</v>
       </c>
@@ -8451,11 +9644,11 @@
         <f t="shared" si="4"/>
         <v>43.433845952054241</v>
       </c>
-      <c r="Y22" s="28">
+      <c r="Y22" s="25">
         <f t="shared" si="5"/>
         <v>49.815778108096126</v>
       </c>
-      <c r="Z22" s="30">
+      <c r="Z22" s="27">
         <f t="shared" si="6"/>
         <v>4.4118526287153363</v>
       </c>
@@ -8482,12 +9675,12 @@
       <c r="T23" s="1">
         <v>43.8</v>
       </c>
-      <c r="U23" s="22">
+      <c r="U23" s="21">
         <f t="shared" si="2"/>
         <v>43.838120300751875</v>
       </c>
-      <c r="V23" s="23"/>
-      <c r="W23" s="28">
+      <c r="V23" s="22"/>
+      <c r="W23" s="25">
         <f t="shared" si="3"/>
         <v>1.6497479782816145</v>
       </c>
@@ -8495,11 +9688,11 @@
         <f t="shared" si="4"/>
         <v>40.373649546360483</v>
       </c>
-      <c r="Y23" s="28">
+      <c r="Y23" s="25">
         <f t="shared" si="5"/>
         <v>47.302591055143267</v>
       </c>
-      <c r="Z23" s="30">
+      <c r="Z23" s="27">
         <f t="shared" si="6"/>
         <v>4.4583863103251744</v>
       </c>
@@ -8519,12 +9712,12 @@
       <c r="T24" s="1">
         <v>43.7</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="21">
         <f t="shared" si="2"/>
         <v>41.051428571428566</v>
       </c>
-      <c r="V24" s="23"/>
-      <c r="W24" s="28">
+      <c r="V24" s="22"/>
+      <c r="W24" s="25">
         <f t="shared" si="3"/>
         <v>1.7849450623929111</v>
       </c>
@@ -8532,11 +9725,11 @@
         <f t="shared" si="4"/>
         <v>37.303043940403455</v>
       </c>
-      <c r="Y24" s="28">
+      <c r="Y24" s="25">
         <f t="shared" si="5"/>
         <v>44.799813202453677</v>
       </c>
-      <c r="Z24" s="30">
+      <c r="Z24" s="27">
         <f t="shared" si="6"/>
         <v>4.5101628547106234</v>
       </c>
@@ -8744,8 +9937,8 @@
         <f t="shared" si="11"/>
         <v>456.59999999999997</v>
       </c>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">

--- a/Geology/8.xlsx
+++ b/Geology/8.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D4A88-9BA2-4100-BB6E-DB05C9F65EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C522A88-4C83-4B22-8809-FFC551A76C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
   <sheets>
     <sheet name="8-9" sheetId="1" r:id="rId1"/>
     <sheet name="10-12" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="131">
   <si>
     <t>x</t>
   </si>
@@ -290,6 +291,153 @@
   <si>
     <t>регресія адекватна, але в даних є 1 аномальне значення</t>
   </si>
+  <si>
+    <t>Навчальная вибірка</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Тестова вибірка</t>
+  </si>
+  <si>
+    <t>y_true</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>Т4</t>
+  </si>
+  <si>
+    <t>Т5</t>
+  </si>
+  <si>
+    <t>Т6</t>
+  </si>
+  <si>
+    <t>Т7</t>
+  </si>
+  <si>
+    <t>Т8</t>
+  </si>
+  <si>
+    <t>Т9</t>
+  </si>
+  <si>
+    <t>Т10</t>
+  </si>
+  <si>
+    <t>Т11</t>
+  </si>
+  <si>
+    <t>Т12</t>
+  </si>
+  <si>
+    <t>Т13</t>
+  </si>
+  <si>
+    <t>Т14</t>
+  </si>
+  <si>
+    <t>Т15</t>
+  </si>
+  <si>
+    <t>Т16</t>
+  </si>
+  <si>
+    <t>О1</t>
+  </si>
+  <si>
+    <t>О2</t>
+  </si>
+  <si>
+    <t>О3</t>
+  </si>
+  <si>
+    <t>О4</t>
+  </si>
+  <si>
+    <t>О5</t>
+  </si>
+  <si>
+    <t>О6</t>
+  </si>
+  <si>
+    <t>О7</t>
+  </si>
+  <si>
+    <t>О8</t>
+  </si>
+  <si>
+    <t>О9</t>
+  </si>
+  <si>
+    <t>О10</t>
+  </si>
+  <si>
+    <t>y_pred(k=1)</t>
+  </si>
+  <si>
+    <t>d(O1,T)</t>
+  </si>
+  <si>
+    <t>d(O2,T)</t>
+  </si>
+  <si>
+    <t>d(O3,T)</t>
+  </si>
+  <si>
+    <t>d(O4,T)</t>
+  </si>
+  <si>
+    <t>d(O5,T)</t>
+  </si>
+  <si>
+    <t>d(O6,T)</t>
+  </si>
+  <si>
+    <t>d(O7,T)</t>
+  </si>
+  <si>
+    <t>d(O8,T)</t>
+  </si>
+  <si>
+    <t>d(O9,T)</t>
+  </si>
+  <si>
+    <t>d(O10,T)</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>y_true=1</t>
+  </si>
+  <si>
+    <t>y_true=2</t>
+  </si>
+  <si>
+    <t>y_pred=1</t>
+  </si>
+  <si>
+    <t>y_pred=2</t>
+  </si>
+  <si>
+    <t>Матриця помилок</t>
+  </si>
+  <si>
+    <t>y_pred(k=3)</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +447,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +470,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -356,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -388,11 +552,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -449,6 +690,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8270,7 +8572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D369E1F8-8E6B-4CB9-A205-DFDD95DC900B}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -10779,4 +11081,2383 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D7B58A-C7D5-4C44-A35A-C721F3D1ADC9}">
+  <dimension ref="A1:AH40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="Y1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="34">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C3" s="35">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SQRT((B3-B$23)^2+(C3-C$23)^2)</f>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SQRT((B3-B$24)^2+(C3-C$24)^2)</f>
+        <v>5.0477717856495836</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SQRT((B3-B$25)^2+(C3-C$25)^2)</f>
+        <v>9.2097774131626</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SQRT((B3-B$26)^2+(C3-C$26)^2)</f>
+        <v>1.0049875621120881</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SQRT((B3-B$27)^2+(C3-C$27)^2)</f>
+        <v>7.9429213769242351</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SQRT((B3-B$28)^2+(C3-C$28)^2)</f>
+        <v>7.9649231006959491</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SQRT((B3-B$29)^2+(C3-C$29)^2)</f>
+        <v>8.2219219164377844</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SQRT((B3-B$30)^2+(C3-C$30)^2)</f>
+        <v>4.2953463189829053</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SQRT((B3-B$31)^2+(C3-C$31)^2)</f>
+        <v>6.3639610306789258</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SQRT((B3-B$32)^2+(C3-C$32)^2)</f>
+        <v>6.7357256476195637</v>
+      </c>
+      <c r="S3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="46">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U3" s="47">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="V3" s="48">
+        <v>2</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="24">
+        <f>SQRT((T3-T$23)^2+(U3-U$23)^2)</f>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="Z3" s="24">
+        <f>SQRT((T3-T$24)^2+(U3-U$24)^2)</f>
+        <v>5.0477717856495836</v>
+      </c>
+      <c r="AA3" s="24">
+        <f>SQRT((T3-T$25)^2+(U3-U$25)^2)</f>
+        <v>9.2097774131626</v>
+      </c>
+      <c r="AB3" s="10">
+        <f>SQRT((T3-T$26)^2+(U3-U$26)^2)</f>
+        <v>1.0049875621120881</v>
+      </c>
+      <c r="AC3" s="24">
+        <f>SQRT((T3-T$27)^2+(U3-U$27)^2)</f>
+        <v>7.9429213769242351</v>
+      </c>
+      <c r="AD3" s="24">
+        <f>SQRT((T3-T$28)^2+(U3-U$28)^2)</f>
+        <v>7.9649231006959491</v>
+      </c>
+      <c r="AE3" s="24">
+        <f>SQRT((T3-T$29)^2+(U3-U$29)^2)</f>
+        <v>8.2219219164377844</v>
+      </c>
+      <c r="AF3" s="24">
+        <f>SQRT((T3-T$30)^2+(U3-U$30)^2)</f>
+        <v>4.2953463189829053</v>
+      </c>
+      <c r="AG3" s="24">
+        <f>SQRT((T3-T$31)^2+(U3-U$31)^2)</f>
+        <v>6.3639610306789258</v>
+      </c>
+      <c r="AH3" s="24">
+        <f>SQRT((T3-T$32)^2+(U3-U$32)^2)</f>
+        <v>6.7357256476195637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="34">
+        <v>6.3</v>
+      </c>
+      <c r="C4" s="35">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G18" si="0">SQRT((B4-B$23)^2+(C4-C$23)^2)</f>
+        <v>3.701351104664349</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H18" si="1">SQRT((B4-B$24)^2+(C4-C$24)^2)</f>
+        <v>4.1109609582188931</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I18" si="2">SQRT((B4-B$25)^2+(C4-C$25)^2)</f>
+        <v>8.616263691415206</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J18" si="3">SQRT((B4-B$26)^2+(C4-C$26)^2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K18" si="4">SQRT((B4-B$27)^2+(C4-C$27)^2)</f>
+        <v>9.0094394942193841</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L18" si="5">SQRT((B4-B$28)^2+(C4-C$28)^2)</f>
+        <v>8.1498466243236773</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M18" si="6">SQRT((B4-B$29)^2+(C4-C$29)^2)</f>
+        <v>6.1400325732035022</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N18" si="7">SQRT((B4-B$30)^2+(C4-C$30)^2)</f>
+        <v>5.1195702944680823</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O18" si="8">SQRT((B4-B$31)^2+(C4-C$31)^2)</f>
+        <v>7.6655071586947203</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" ref="P4:P18" si="9">SQRT((B4-B$32)^2+(C4-C$32)^2)</f>
+        <v>4.7423622805517516</v>
+      </c>
+      <c r="S4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="46">
+        <v>6.3</v>
+      </c>
+      <c r="U4" s="47">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V4" s="48">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="24">
+        <f t="shared" ref="Y4:Y18" si="10">SQRT((T4-T$23)^2+(U4-U$23)^2)</f>
+        <v>3.701351104664349</v>
+      </c>
+      <c r="Z4" s="24">
+        <f t="shared" ref="Z4:Z18" si="11">SQRT((T4-T$24)^2+(U4-U$24)^2)</f>
+        <v>4.1109609582188931</v>
+      </c>
+      <c r="AA4" s="24">
+        <f t="shared" ref="AA4:AA18" si="12">SQRT((T4-T$25)^2+(U4-U$25)^2)</f>
+        <v>8.616263691415206</v>
+      </c>
+      <c r="AB4" s="24">
+        <f t="shared" ref="AB4:AB18" si="13">SQRT((T4-T$26)^2+(U4-U$26)^2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="AC4" s="24">
+        <f t="shared" ref="AC4:AC18" si="14">SQRT((T4-T$27)^2+(U4-U$27)^2)</f>
+        <v>9.0094394942193841</v>
+      </c>
+      <c r="AD4" s="24">
+        <f t="shared" ref="AD4:AD18" si="15">SQRT((T4-T$28)^2+(U4-U$28)^2)</f>
+        <v>8.1498466243236773</v>
+      </c>
+      <c r="AE4" s="24">
+        <f t="shared" ref="AE4:AE18" si="16">SQRT((T4-T$29)^2+(U4-U$29)^2)</f>
+        <v>6.1400325732035022</v>
+      </c>
+      <c r="AF4" s="24">
+        <f t="shared" ref="AF4:AF18" si="17">SQRT((T4-T$30)^2+(U4-U$30)^2)</f>
+        <v>5.1195702944680823</v>
+      </c>
+      <c r="AG4" s="24">
+        <f t="shared" ref="AG4:AG18" si="18">SQRT((T4-T$31)^2+(U4-U$31)^2)</f>
+        <v>7.6655071586947203</v>
+      </c>
+      <c r="AH4" s="24">
+        <f t="shared" ref="AH4:AH18" si="19">SQRT((T4-T$32)^2+(U4-U$32)^2)</f>
+        <v>4.7423622805517516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="34">
+        <v>10</v>
+      </c>
+      <c r="C5" s="35">
+        <v>9</v>
+      </c>
+      <c r="D5" s="36">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4108029254595627</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>6.1611687202997443</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>10.339245620450265</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0124611797498106</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="4"/>
+        <v>8.9022469073824286</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="5"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="6"/>
+        <v>9.2477024173575142</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="7"/>
+        <v>5.3712196007983142</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="8"/>
+        <v>7.3006848993775915</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="9"/>
+        <v>7.7620873481300121</v>
+      </c>
+      <c r="S5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T5" s="46">
+        <v>10</v>
+      </c>
+      <c r="U5" s="47">
+        <v>9</v>
+      </c>
+      <c r="V5" s="48">
+        <v>2</v>
+      </c>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="24">
+        <f t="shared" si="10"/>
+        <v>7.4108029254595627</v>
+      </c>
+      <c r="Z5" s="24">
+        <f t="shared" si="11"/>
+        <v>6.1611687202997443</v>
+      </c>
+      <c r="AA5" s="24">
+        <f t="shared" si="12"/>
+        <v>10.339245620450265</v>
+      </c>
+      <c r="AB5" s="24">
+        <f t="shared" si="13"/>
+        <v>2.0124611797498106</v>
+      </c>
+      <c r="AC5" s="24">
+        <f t="shared" si="14"/>
+        <v>8.9022469073824286</v>
+      </c>
+      <c r="AD5" s="24">
+        <f t="shared" si="15"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="AE5" s="24">
+        <f t="shared" si="16"/>
+        <v>9.2477024173575142</v>
+      </c>
+      <c r="AF5" s="24">
+        <f t="shared" si="17"/>
+        <v>5.3712196007983142</v>
+      </c>
+      <c r="AG5" s="24">
+        <f t="shared" si="18"/>
+        <v>7.3006848993775915</v>
+      </c>
+      <c r="AH5" s="24">
+        <f t="shared" si="19"/>
+        <v>7.7620873481300121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="34">
+        <v>8.5</v>
+      </c>
+      <c r="C6" s="35">
+        <v>7.3</v>
+      </c>
+      <c r="D6" s="36">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2625873247404709</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.982461550347975</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>8.0721744282442263</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="3"/>
+        <v>0.60827625302982158</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="4"/>
+        <v>6.946221994724902</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="5"/>
+        <v>6.8425141578224</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="6"/>
+        <v>7.3006848993775915</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="7"/>
+        <v>3.1953090617340911</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="8"/>
+        <v>5.4037024344425184</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="9"/>
+        <v>5.8249463516842797</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="46">
+        <v>8.5</v>
+      </c>
+      <c r="U6" s="47">
+        <v>7.3</v>
+      </c>
+      <c r="V6" s="48">
+        <v>2</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="24">
+        <f t="shared" si="10"/>
+        <v>6.2625873247404709</v>
+      </c>
+      <c r="Z6" s="24">
+        <f t="shared" si="11"/>
+        <v>3.982461550347975</v>
+      </c>
+      <c r="AA6" s="24">
+        <f t="shared" si="12"/>
+        <v>8.0721744282442263</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="13"/>
+        <v>0.60827625302982158</v>
+      </c>
+      <c r="AC6" s="24">
+        <f t="shared" si="14"/>
+        <v>6.946221994724902</v>
+      </c>
+      <c r="AD6" s="24">
+        <f t="shared" si="15"/>
+        <v>6.8425141578224</v>
+      </c>
+      <c r="AE6" s="24">
+        <f t="shared" si="16"/>
+        <v>7.3006848993775915</v>
+      </c>
+      <c r="AF6" s="24">
+        <f t="shared" si="17"/>
+        <v>3.1953090617340911</v>
+      </c>
+      <c r="AG6" s="24">
+        <f t="shared" si="18"/>
+        <v>5.4037024344425184</v>
+      </c>
+      <c r="AH6" s="24">
+        <f t="shared" si="19"/>
+        <v>5.8249463516842797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="34">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35">
+        <v>6.3</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1256999216175574</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1931712199461306</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>5.0009999000199947</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>6.1660360037871982</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="4"/>
+        <v>7.5432088662584436</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="5"/>
+        <v>5.6364882684167812</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="6"/>
+        <v>1.7464249196572983</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="7"/>
+        <v>4.8332183894378291</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8883960397178097</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="9"/>
+        <v>0.28284271247461928</v>
+      </c>
+      <c r="S7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="46">
+        <v>3</v>
+      </c>
+      <c r="U7" s="47">
+        <v>6.3</v>
+      </c>
+      <c r="V7" s="48">
+        <v>1</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="24">
+        <f t="shared" si="10"/>
+        <v>3.1256999216175574</v>
+      </c>
+      <c r="Z7" s="10">
+        <f t="shared" si="11"/>
+        <v>2.1931712199461306</v>
+      </c>
+      <c r="AA7" s="10">
+        <f t="shared" si="12"/>
+        <v>5.0009999000199947</v>
+      </c>
+      <c r="AB7" s="24">
+        <f t="shared" si="13"/>
+        <v>6.1660360037871982</v>
+      </c>
+      <c r="AC7" s="24">
+        <f t="shared" si="14"/>
+        <v>7.5432088662584436</v>
+      </c>
+      <c r="AD7" s="10">
+        <f t="shared" si="15"/>
+        <v>5.6364882684167812</v>
+      </c>
+      <c r="AE7" s="10">
+        <f t="shared" si="16"/>
+        <v>1.7464249196572983</v>
+      </c>
+      <c r="AF7" s="24">
+        <f t="shared" si="17"/>
+        <v>4.8332183894378291</v>
+      </c>
+      <c r="AG7" s="24">
+        <f t="shared" si="18"/>
+        <v>6.8883960397178097</v>
+      </c>
+      <c r="AH7" s="10">
+        <f t="shared" si="19"/>
+        <v>0.28284271247461928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="C8" s="35">
+        <v>11</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9648766349225628</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0539243470661237</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>10.570241246064349</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2047592083257275</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="4"/>
+        <v>10.607544484940895</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="5"/>
+        <v>9.9824846606443636</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="6"/>
+        <v>7.9981247802219242</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="7"/>
+        <v>6.7007462271003817</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="8"/>
+        <v>9.1547801721286568</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="9"/>
+        <v>6.6528189513919589</v>
+      </c>
+      <c r="S8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" s="46">
+        <v>7.3</v>
+      </c>
+      <c r="U8" s="47">
+        <v>11</v>
+      </c>
+      <c r="V8" s="48">
+        <v>1</v>
+      </c>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="24">
+        <f t="shared" si="10"/>
+        <v>4.9648766349225628</v>
+      </c>
+      <c r="Z8" s="24">
+        <f t="shared" si="11"/>
+        <v>6.0539243470661237</v>
+      </c>
+      <c r="AA8" s="24">
+        <f t="shared" si="12"/>
+        <v>10.570241246064349</v>
+      </c>
+      <c r="AB8" s="24">
+        <f t="shared" si="13"/>
+        <v>4.2047592083257275</v>
+      </c>
+      <c r="AC8" s="24">
+        <f t="shared" si="14"/>
+        <v>10.607544484940895</v>
+      </c>
+      <c r="AD8" s="24">
+        <f t="shared" si="15"/>
+        <v>9.9824846606443636</v>
+      </c>
+      <c r="AE8" s="24">
+        <f t="shared" si="16"/>
+        <v>7.9981247802219242</v>
+      </c>
+      <c r="AF8" s="24">
+        <f t="shared" si="17"/>
+        <v>6.7007462271003817</v>
+      </c>
+      <c r="AG8" s="24">
+        <f t="shared" si="18"/>
+        <v>9.1547801721286568</v>
+      </c>
+      <c r="AH8" s="24">
+        <f t="shared" si="19"/>
+        <v>6.6528189513919589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="34">
+        <v>5.3</v>
+      </c>
+      <c r="C9" s="35">
+        <v>10.4</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8792360097775935</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>5.008991914547277</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>9.3621578709184341</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>4.9678969393496883</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="4"/>
+        <v>10.283968105745952</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="5"/>
+        <v>9.2005434622091773</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="6"/>
+        <v>6.1846584384264913</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="7"/>
+        <v>6.4513564465157254</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="8"/>
+        <v>9.013878188659973</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="9"/>
+        <v>4.9739320461783558</v>
+      </c>
+      <c r="S9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="46">
+        <v>5.3</v>
+      </c>
+      <c r="U9" s="47">
+        <v>10.4</v>
+      </c>
+      <c r="V9" s="48">
+        <v>1</v>
+      </c>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="24">
+        <f t="shared" si="10"/>
+        <v>2.8792360097775935</v>
+      </c>
+      <c r="Z9" s="24">
+        <f t="shared" si="11"/>
+        <v>5.008991914547277</v>
+      </c>
+      <c r="AA9" s="24">
+        <f t="shared" si="12"/>
+        <v>9.3621578709184341</v>
+      </c>
+      <c r="AB9" s="24">
+        <f t="shared" si="13"/>
+        <v>4.9678969393496883</v>
+      </c>
+      <c r="AC9" s="24">
+        <f t="shared" si="14"/>
+        <v>10.283968105745952</v>
+      </c>
+      <c r="AD9" s="24">
+        <f t="shared" si="15"/>
+        <v>9.2005434622091773</v>
+      </c>
+      <c r="AE9" s="24">
+        <f t="shared" si="16"/>
+        <v>6.1846584384264913</v>
+      </c>
+      <c r="AF9" s="24">
+        <f t="shared" si="17"/>
+        <v>6.4513564465157254</v>
+      </c>
+      <c r="AG9" s="24">
+        <f t="shared" si="18"/>
+        <v>9.013878188659973</v>
+      </c>
+      <c r="AH9" s="24">
+        <f t="shared" si="19"/>
+        <v>4.9739320461783558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="C10" s="35">
+        <v>7.5</v>
+      </c>
+      <c r="D10" s="48">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" si="0"/>
+        <v>2.4839484696748446</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2472205054244228</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>6.296824596572467</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.9091750834534302</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="4"/>
+        <v>7.9158069708653205</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="5"/>
+        <v>6.4132674979295849</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="6"/>
+        <v>3.3837848631377265</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="7"/>
+        <v>4.525483399593905</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="8"/>
+        <v>6.940461079784253</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="9"/>
+        <v>1.9798989873223336</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="46">
+        <v>4.2</v>
+      </c>
+      <c r="U10" s="47">
+        <v>7.5</v>
+      </c>
+      <c r="V10" s="48">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="10">
+        <f t="shared" si="10"/>
+        <v>2.4839484696748446</v>
+      </c>
+      <c r="Z10" s="24">
+        <f t="shared" si="11"/>
+        <v>2.2472205054244228</v>
+      </c>
+      <c r="AA10" s="24">
+        <f t="shared" si="12"/>
+        <v>6.296824596572467</v>
+      </c>
+      <c r="AB10" s="24">
+        <f t="shared" si="13"/>
+        <v>4.9091750834534302</v>
+      </c>
+      <c r="AC10" s="24">
+        <f t="shared" si="14"/>
+        <v>7.9158069708653205</v>
+      </c>
+      <c r="AD10" s="24">
+        <f t="shared" si="15"/>
+        <v>6.4132674979295849</v>
+      </c>
+      <c r="AE10" s="10">
+        <f t="shared" si="16"/>
+        <v>3.3837848631377265</v>
+      </c>
+      <c r="AF10" s="24">
+        <f t="shared" si="17"/>
+        <v>4.525483399593905</v>
+      </c>
+      <c r="AG10" s="24">
+        <f t="shared" si="18"/>
+        <v>6.940461079784253</v>
+      </c>
+      <c r="AH10" s="10">
+        <f t="shared" si="19"/>
+        <v>1.9798989873223336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="34">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35">
+        <v>6.1</v>
+      </c>
+      <c r="D11" s="36">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000009</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>2.118962010041709</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>6.1846584384264904</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>2.3706539182259396</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="4"/>
+        <v>5.7428216061444912</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="5"/>
+        <v>5.1546095875439484</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="6"/>
+        <v>5.6222771187482383</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="7"/>
+        <v>1.8439088914585773</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="8"/>
+        <v>4.3965895873961207</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="9"/>
+        <v>4.2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="46">
+        <v>7</v>
+      </c>
+      <c r="U11" s="47">
+        <v>6.1</v>
+      </c>
+      <c r="V11" s="48">
+        <v>2</v>
+      </c>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="24">
+        <f t="shared" si="10"/>
+        <v>5.5000000000000009</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="11"/>
+        <v>2.118962010041709</v>
+      </c>
+      <c r="AA11" s="10">
+        <f t="shared" si="12"/>
+        <v>6.1846584384264904</v>
+      </c>
+      <c r="AB11" s="24">
+        <f t="shared" si="13"/>
+        <v>2.3706539182259396</v>
+      </c>
+      <c r="AC11" s="10">
+        <f t="shared" si="14"/>
+        <v>5.7428216061444912</v>
+      </c>
+      <c r="AD11" s="10">
+        <f t="shared" si="15"/>
+        <v>5.1546095875439484</v>
+      </c>
+      <c r="AE11" s="24">
+        <f t="shared" si="16"/>
+        <v>5.6222771187482383</v>
+      </c>
+      <c r="AF11" s="10">
+        <f t="shared" si="17"/>
+        <v>1.8439088914585773</v>
+      </c>
+      <c r="AG11" s="10">
+        <f t="shared" si="18"/>
+        <v>4.3965895873961207</v>
+      </c>
+      <c r="AH11" s="24">
+        <f t="shared" si="19"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="34">
+        <v>10.3</v>
+      </c>
+      <c r="C12" s="35">
+        <v>6.5</v>
+      </c>
+      <c r="D12" s="36">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2280009722896867</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4129474410897442</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>8.8814413244698081</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3892443989449814</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="4"/>
+        <v>6.6309878600401611</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="5"/>
+        <v>7.2180329730474364</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="6"/>
+        <v>8.9453898741195186</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="7"/>
+        <v>3.6400549446402595</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="8"/>
+        <v>5.0159744815937808</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="9"/>
+        <v>7.5106590922501617</v>
+      </c>
+      <c r="S12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" s="46">
+        <v>10.3</v>
+      </c>
+      <c r="U12" s="47">
+        <v>6.5</v>
+      </c>
+      <c r="V12" s="48">
+        <v>2</v>
+      </c>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="24">
+        <f t="shared" si="10"/>
+        <v>8.2280009722896867</v>
+      </c>
+      <c r="Z12" s="24">
+        <f t="shared" si="11"/>
+        <v>5.4129474410897442</v>
+      </c>
+      <c r="AA12" s="24">
+        <f t="shared" si="12"/>
+        <v>8.8814413244698081</v>
+      </c>
+      <c r="AB12" s="24">
+        <f t="shared" si="13"/>
+        <v>1.3892443989449814</v>
+      </c>
+      <c r="AC12" s="10">
+        <f t="shared" si="14"/>
+        <v>6.6309878600401611</v>
+      </c>
+      <c r="AD12" s="24">
+        <f t="shared" si="15"/>
+        <v>7.2180329730474364</v>
+      </c>
+      <c r="AE12" s="24">
+        <f t="shared" si="16"/>
+        <v>8.9453898741195186</v>
+      </c>
+      <c r="AF12" s="24">
+        <f t="shared" si="17"/>
+        <v>3.6400549446402595</v>
+      </c>
+      <c r="AG12" s="10">
+        <f t="shared" si="18"/>
+        <v>5.0159744815937808</v>
+      </c>
+      <c r="AH12" s="24">
+        <f t="shared" si="19"/>
+        <v>7.5106590922501617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C13" s="35">
+        <v>8.5</v>
+      </c>
+      <c r="D13" s="36">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0124611797498111</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1575306807693884</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>7.3164198895361388</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>4.8764741360946431</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="4"/>
+        <v>8.7464278422679502</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="5"/>
+        <v>7.3681748079154579</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="6"/>
+        <v>4.1725292090050132</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="7"/>
+        <v>5.1613951602255765</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="8"/>
+        <v>7.6661594035083827</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="9"/>
+        <v>2.8844410203711921</v>
+      </c>
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U13" s="47">
+        <v>8.5</v>
+      </c>
+      <c r="V13" s="48">
+        <v>1</v>
+      </c>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="10">
+        <f t="shared" si="10"/>
+        <v>2.0124611797498111</v>
+      </c>
+      <c r="Z13" s="24">
+        <f t="shared" si="11"/>
+        <v>3.1575306807693884</v>
+      </c>
+      <c r="AA13" s="24">
+        <f t="shared" si="12"/>
+        <v>7.3164198895361388</v>
+      </c>
+      <c r="AB13" s="24">
+        <f t="shared" si="13"/>
+        <v>4.8764741360946431</v>
+      </c>
+      <c r="AC13" s="24">
+        <f t="shared" si="14"/>
+        <v>8.7464278422679502</v>
+      </c>
+      <c r="AD13" s="24">
+        <f t="shared" si="15"/>
+        <v>7.3681748079154579</v>
+      </c>
+      <c r="AE13" s="24">
+        <f t="shared" si="16"/>
+        <v>4.1725292090050132</v>
+      </c>
+      <c r="AF13" s="24">
+        <f t="shared" si="17"/>
+        <v>5.1613951602255765</v>
+      </c>
+      <c r="AG13" s="24">
+        <f t="shared" si="18"/>
+        <v>7.6661594035083827</v>
+      </c>
+      <c r="AH13" s="24">
+        <f t="shared" si="19"/>
+        <v>2.8844410203711921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="34">
+        <v>9.4</v>
+      </c>
+      <c r="C14" s="35">
+        <v>6.3</v>
+      </c>
+      <c r="D14" s="36">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4732857566133521</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4911023145771241</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>8.0430093870391577</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.94868329805051432</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="4"/>
+        <v>6.1400325732035004</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="5"/>
+        <v>6.4815121692395206</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="6"/>
+        <v>8.0305666051655411</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="7"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="8"/>
+        <v>4.5354161881794273</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="9"/>
+        <v>6.603029607687672</v>
+      </c>
+      <c r="S14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="46">
+        <v>9.4</v>
+      </c>
+      <c r="U14" s="47">
+        <v>6.3</v>
+      </c>
+      <c r="V14" s="48">
+        <v>2</v>
+      </c>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="24">
+        <f t="shared" si="10"/>
+        <v>7.4732857566133521</v>
+      </c>
+      <c r="Z14" s="24">
+        <f t="shared" si="11"/>
+        <v>4.4911023145771241</v>
+      </c>
+      <c r="AA14" s="24">
+        <f t="shared" si="12"/>
+        <v>8.0430093870391577</v>
+      </c>
+      <c r="AB14" s="10">
+        <f t="shared" si="13"/>
+        <v>0.94868329805051432</v>
+      </c>
+      <c r="AC14" s="10">
+        <f t="shared" si="14"/>
+        <v>6.1400325732035004</v>
+      </c>
+      <c r="AD14" s="24">
+        <f t="shared" si="15"/>
+        <v>6.4815121692395206</v>
+      </c>
+      <c r="AE14" s="24">
+        <f t="shared" si="16"/>
+        <v>8.0305666051655411</v>
+      </c>
+      <c r="AF14" s="10">
+        <f t="shared" si="17"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="AG14" s="10">
+        <f t="shared" si="18"/>
+        <v>4.5354161881794273</v>
+      </c>
+      <c r="AH14" s="24">
+        <f t="shared" si="19"/>
+        <v>6.603029607687672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="34">
+        <v>3.4</v>
+      </c>
+      <c r="C15" s="35">
+        <v>7.2</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>2.340939982143925</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4083189157584592</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>5.9076221950967724</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="4"/>
+        <v>8.0454956342042721</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="5"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="6"/>
+        <v>2.56124969497314</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="7"/>
+        <v>4.9406477308142502</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="8"/>
+        <v>7.2180329730474364</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="9"/>
+        <v>1.2529964086141672</v>
+      </c>
+      <c r="S15" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" s="46">
+        <v>3.4</v>
+      </c>
+      <c r="U15" s="47">
+        <v>7.2</v>
+      </c>
+      <c r="V15" s="48">
+        <v>1</v>
+      </c>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="10">
+        <f t="shared" si="10"/>
+        <v>2.340939982143925</v>
+      </c>
+      <c r="Z15" s="24">
+        <f t="shared" si="11"/>
+        <v>2.4083189157584592</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" si="12"/>
+        <v>5.9076221950967724</v>
+      </c>
+      <c r="AB15" s="24">
+        <f t="shared" si="13"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="AC15" s="24">
+        <f t="shared" si="14"/>
+        <v>8.0454956342042721</v>
+      </c>
+      <c r="AD15" s="24">
+        <f t="shared" si="15"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="AE15" s="10">
+        <f t="shared" si="16"/>
+        <v>2.56124969497314</v>
+      </c>
+      <c r="AF15" s="24">
+        <f t="shared" si="17"/>
+        <v>4.9406477308142502</v>
+      </c>
+      <c r="AG15" s="24">
+        <f t="shared" si="18"/>
+        <v>7.2180329730474364</v>
+      </c>
+      <c r="AH15" s="10">
+        <f t="shared" si="19"/>
+        <v>1.2529964086141672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="34">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C16" s="35">
+        <v>10.5</v>
+      </c>
+      <c r="D16" s="36">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7896980787071834</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6708320320631671</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>11.094142598686931</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.306055050963308</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="4"/>
+        <v>10.225947388873072</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="5"/>
+        <v>10.084641788382967</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="6"/>
+        <v>9.2962357973536811</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="7"/>
+        <v>6.4845971347493903</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="8"/>
+        <v>8.6579443287653444</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="9"/>
+        <v>7.849203781276163</v>
+      </c>
+      <c r="S16" t="s">
+        <v>100</v>
+      </c>
+      <c r="T16" s="46">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U16" s="47">
+        <v>10.5</v>
+      </c>
+      <c r="V16" s="48">
+        <v>2</v>
+      </c>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="24">
+        <f t="shared" si="10"/>
+        <v>6.7896980787071834</v>
+      </c>
+      <c r="Z16" s="24">
+        <f t="shared" si="11"/>
+        <v>6.6708320320631671</v>
+      </c>
+      <c r="AA16" s="24">
+        <f t="shared" si="12"/>
+        <v>11.094142598686931</v>
+      </c>
+      <c r="AB16" s="24">
+        <f t="shared" si="13"/>
+        <v>3.306055050963308</v>
+      </c>
+      <c r="AC16" s="24">
+        <f t="shared" si="14"/>
+        <v>10.225947388873072</v>
+      </c>
+      <c r="AD16" s="24">
+        <f t="shared" si="15"/>
+        <v>10.084641788382967</v>
+      </c>
+      <c r="AE16" s="24">
+        <f t="shared" si="16"/>
+        <v>9.2962357973536811</v>
+      </c>
+      <c r="AF16" s="24">
+        <f t="shared" si="17"/>
+        <v>6.4845971347493903</v>
+      </c>
+      <c r="AG16" s="24">
+        <f t="shared" si="18"/>
+        <v>8.6579443287653444</v>
+      </c>
+      <c r="AH16" s="24">
+        <f t="shared" si="19"/>
+        <v>7.849203781276163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="34">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C17" s="35">
+        <v>11.3</v>
+      </c>
+      <c r="D17" s="36">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8339006886735545</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>7.8644770964127035</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>12.264175471673585</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2449970553582252</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="4"/>
+        <v>11.183022847155415</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="5"/>
+        <v>11.182575731914362</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="6"/>
+        <v>10.484750831564858</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5392307299883061</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="8"/>
+        <v>9.5900990610107897</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="9"/>
+        <v>9.0443352436760112</v>
+      </c>
+      <c r="S17" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="46">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U17" s="47">
+        <v>11.3</v>
+      </c>
+      <c r="V17" s="48">
+        <v>2</v>
+      </c>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="24">
+        <f t="shared" si="10"/>
+        <v>7.8339006886735545</v>
+      </c>
+      <c r="Z17" s="24">
+        <f t="shared" si="11"/>
+        <v>7.8644770964127035</v>
+      </c>
+      <c r="AA17" s="24">
+        <f t="shared" si="12"/>
+        <v>12.264175471673585</v>
+      </c>
+      <c r="AB17" s="24">
+        <f t="shared" si="13"/>
+        <v>4.2449970553582252</v>
+      </c>
+      <c r="AC17" s="24">
+        <f t="shared" si="14"/>
+        <v>11.183022847155415</v>
+      </c>
+      <c r="AD17" s="24">
+        <f t="shared" si="15"/>
+        <v>11.182575731914362</v>
+      </c>
+      <c r="AE17" s="24">
+        <f t="shared" si="16"/>
+        <v>10.484750831564858</v>
+      </c>
+      <c r="AF17" s="24">
+        <f t="shared" si="17"/>
+        <v>7.5392307299883061</v>
+      </c>
+      <c r="AG17" s="24">
+        <f t="shared" si="18"/>
+        <v>9.5900990610107897</v>
+      </c>
+      <c r="AH17" s="24">
+        <f t="shared" si="19"/>
+        <v>9.0443352436760112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="37">
+        <v>6.3</v>
+      </c>
+      <c r="C18" s="38">
+        <v>7.2</v>
+      </c>
+      <c r="D18" s="39">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3046486500061762</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2203603311174516</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>6.711929677819934</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="4"/>
+        <v>6.942621983083912</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="5"/>
+        <v>6.0671245248470056</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="6"/>
+        <v>5.1546095875439502</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="7"/>
+        <v>3.101612483854165</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="8"/>
+        <v>5.6648036153074193</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="9"/>
+        <v>3.6687872655688283</v>
+      </c>
+      <c r="S18" t="s">
+        <v>102</v>
+      </c>
+      <c r="T18" s="49">
+        <v>6.3</v>
+      </c>
+      <c r="U18" s="50">
+        <v>7.2</v>
+      </c>
+      <c r="V18" s="51">
+        <v>2</v>
+      </c>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="24">
+        <f t="shared" si="10"/>
+        <v>4.3046486500061762</v>
+      </c>
+      <c r="Z18" s="10">
+        <f t="shared" si="11"/>
+        <v>2.2203603311174516</v>
+      </c>
+      <c r="AA18" s="24">
+        <f t="shared" si="12"/>
+        <v>6.711929677819934</v>
+      </c>
+      <c r="AB18" s="24">
+        <f t="shared" si="13"/>
+        <v>2.8</v>
+      </c>
+      <c r="AC18" s="24">
+        <f t="shared" si="14"/>
+        <v>6.942621983083912</v>
+      </c>
+      <c r="AD18" s="10">
+        <f t="shared" si="15"/>
+        <v>6.0671245248470056</v>
+      </c>
+      <c r="AE18" s="24">
+        <f t="shared" si="16"/>
+        <v>5.1546095875439502</v>
+      </c>
+      <c r="AF18" s="10">
+        <f t="shared" si="17"/>
+        <v>3.101612483854165</v>
+      </c>
+      <c r="AG18" s="24">
+        <f t="shared" si="18"/>
+        <v>5.6648036153074193</v>
+      </c>
+      <c r="AH18" s="24">
+        <f t="shared" si="19"/>
+        <v>3.6687872655688283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="T21" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="T22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="V22" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="W22" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="C23" s="35">
+        <v>9.4</v>
+      </c>
+      <c r="D23" s="36">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(D23=E23,"+","-")</f>
+        <v>+</v>
+      </c>
+      <c r="S23" t="s">
+        <v>103</v>
+      </c>
+      <c r="T23" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="U23" s="35">
+        <v>9.4</v>
+      </c>
+      <c r="V23" s="36">
+        <v>1</v>
+      </c>
+      <c r="W23" s="44">
+        <v>1</v>
+      </c>
+      <c r="X23" t="str">
+        <f>IF(V23=W23,"+","-")</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="34">
+        <v>5</v>
+      </c>
+      <c r="C24" s="35">
+        <v>5.4</v>
+      </c>
+      <c r="D24" s="36">
+        <v>1</v>
+      </c>
+      <c r="E24" s="44">
+        <v>2</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" ref="F24:F32" si="20">IF(D24=E24,"+","-")</f>
+        <v>-</v>
+      </c>
+      <c r="S24" t="s">
+        <v>104</v>
+      </c>
+      <c r="T24" s="34">
+        <v>5</v>
+      </c>
+      <c r="U24" s="35">
+        <v>5.4</v>
+      </c>
+      <c r="V24" s="36">
+        <v>1</v>
+      </c>
+      <c r="W24" s="44">
+        <v>2</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" ref="X24:X32" si="21">IF(V24=W24,"+","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="C25" s="35">
+        <v>1.3</v>
+      </c>
+      <c r="D25" s="36">
+        <v>1</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="S25" t="s">
+        <v>105</v>
+      </c>
+      <c r="T25" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="U25" s="35">
+        <v>1.3</v>
+      </c>
+      <c r="V25" s="36">
+        <v>1</v>
+      </c>
+      <c r="W25" s="44">
+        <v>1</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="34">
+        <v>9.1</v>
+      </c>
+      <c r="C26" s="35">
+        <v>7.2</v>
+      </c>
+      <c r="D26" s="36">
+        <v>2</v>
+      </c>
+      <c r="E26" s="44">
+        <v>2</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="S26" t="s">
+        <v>106</v>
+      </c>
+      <c r="T26" s="34">
+        <v>9.1</v>
+      </c>
+      <c r="U26" s="35">
+        <v>7.2</v>
+      </c>
+      <c r="V26" s="36">
+        <v>2</v>
+      </c>
+      <c r="W26" s="44">
+        <v>2</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="34">
+        <v>7.7</v>
+      </c>
+      <c r="C27" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D27" s="36">
+        <v>2</v>
+      </c>
+      <c r="E27" s="44">
+        <v>2</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="S27" t="s">
+        <v>107</v>
+      </c>
+      <c r="T27" s="34">
+        <v>7.7</v>
+      </c>
+      <c r="U27" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="V27" s="36">
+        <v>2</v>
+      </c>
+      <c r="W27" s="44">
+        <v>2</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="C28" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="36">
+        <v>2</v>
+      </c>
+      <c r="E28" s="44">
+        <v>2</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="S28" t="s">
+        <v>108</v>
+      </c>
+      <c r="T28" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="U28" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="V28" s="36">
+        <v>2</v>
+      </c>
+      <c r="W28" s="44">
+        <v>2</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="C29" s="35">
+        <v>5.6</v>
+      </c>
+      <c r="D29" s="36">
+        <v>1</v>
+      </c>
+      <c r="E29" s="44">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="S29" t="s">
+        <v>109</v>
+      </c>
+      <c r="T29" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="U29" s="35">
+        <v>5.6</v>
+      </c>
+      <c r="V29" s="36">
+        <v>1</v>
+      </c>
+      <c r="W29" s="44">
+        <v>1</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="C30" s="35">
+        <v>4.3</v>
+      </c>
+      <c r="D30" s="36">
+        <v>2</v>
+      </c>
+      <c r="E30" s="44">
+        <v>2</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="S30" t="s">
+        <v>110</v>
+      </c>
+      <c r="T30" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="U30" s="35">
+        <v>4.3</v>
+      </c>
+      <c r="V30" s="36">
+        <v>2</v>
+      </c>
+      <c r="W30" s="44">
+        <v>2</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="34">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C31" s="35">
+        <v>1.9</v>
+      </c>
+      <c r="D31" s="36">
+        <v>2</v>
+      </c>
+      <c r="E31" s="44">
+        <v>2</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="S31" t="s">
+        <v>111</v>
+      </c>
+      <c r="T31" s="34">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U31" s="35">
+        <v>1.9</v>
+      </c>
+      <c r="V31" s="36">
+        <v>2</v>
+      </c>
+      <c r="W31" s="44">
+        <v>2</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="37">
+        <v>2.8</v>
+      </c>
+      <c r="C32" s="38">
+        <v>6.1</v>
+      </c>
+      <c r="D32" s="39">
+        <v>1</v>
+      </c>
+      <c r="E32" s="44">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="S32" t="s">
+        <v>112</v>
+      </c>
+      <c r="T32" s="37">
+        <v>2.8</v>
+      </c>
+      <c r="U32" s="38">
+        <v>6.1</v>
+      </c>
+      <c r="V32" s="39">
+        <v>1</v>
+      </c>
+      <c r="W32" s="44">
+        <v>1</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="8">
+        <f>COUNTIF(F23:F32, "+")/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="W33" t="s">
+        <v>124</v>
+      </c>
+      <c r="X33" s="8">
+        <f>COUNTIF(X23:X32, "+")/10</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="T37" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="U38" t="s">
+        <v>127</v>
+      </c>
+      <c r="V38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>125</v>
+      </c>
+      <c r="U39">
+        <v>4</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
+        <v>126</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="T37:V37"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Geology/8.xlsx
+++ b/Geology/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C522A88-4C83-4B22-8809-FFC551A76C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ECC41F-350B-4EA9-9B30-CC2FE0385419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
@@ -682,15 +682,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -731,9 +722,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -751,6 +739,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3655,6 +3655,536 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3'!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D958-43EA-B9FD-761DD4CBDE4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ряд 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3'!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D958-43EA-B9FD-761DD4CBDE4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ряд 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3'!$B$23:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3'!$C$23:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D958-43EA-B9FD-761DD4CBDE4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1540344192"/>
+        <c:axId val="1545864848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1540344192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545864848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1545864848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540344192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3815,6 +4345,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5364,6 +5931,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6025,6 +7108,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6A77B7-4C7B-4182-B79D-3CBD07CD56C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8629,28 +9753,28 @@
       <c r="P2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30" t="s">
+      <c r="T2" s="50"/>
+      <c r="U2" s="50" t="s">
         <v>66</v>
       </c>
       <c r="V2" s="19"/>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="X2" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29" t="s">
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="28"/>
+      <c r="AB2" s="48"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -8691,16 +9815,16 @@
         <f>POWER(O3,2)</f>
         <v>0.80743061224492507</v>
       </c>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
       <c r="V3" s="19"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -8751,14 +9875,14 @@
         <v>67</v>
       </c>
       <c r="V4" s="23"/>
-      <c r="W4" s="29"/>
+      <c r="W4" s="49"/>
       <c r="X4" s="26" t="s">
         <v>70</v>
       </c>
       <c r="Y4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Z4" s="29"/>
+      <c r="Z4" s="49"/>
       <c r="AA4" s="26" t="s">
         <v>74</v>
       </c>
@@ -11087,8 +12211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D7B58A-C7D5-4C44-A35A-C721F3D1ADC9}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11097,11 +12221,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="G1" t="s">
         <v>114</v>
       </c>
@@ -11132,11 +12256,11 @@
       <c r="P1" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
       <c r="Y1" t="s">
         <v>114</v>
       </c>
@@ -11169,22 +12293,22 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11192,13 +12316,13 @@
       <c r="A3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="31">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="33">
         <v>2</v>
       </c>
       <c r="G3" s="4">
@@ -11244,13 +12368,13 @@
       <c r="S3" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3" s="42">
         <v>9.1999999999999993</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="43">
         <v>8.1999999999999993</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="44">
         <v>2</v>
       </c>
       <c r="W3" s="12"/>
@@ -11300,13 +12424,13 @@
       <c r="A4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="31">
         <v>6.3</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="33">
         <v>1</v>
       </c>
       <c r="G4" s="4">
@@ -11352,13 +12476,13 @@
       <c r="S4" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4" s="42">
         <v>6.3</v>
       </c>
-      <c r="U4" s="47">
+      <c r="U4" s="43">
         <v>9.3000000000000007</v>
       </c>
-      <c r="V4" s="48">
+      <c r="V4" s="44">
         <v>1</v>
       </c>
       <c r="W4" s="12"/>
@@ -11408,13 +12532,13 @@
       <c r="A5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="31">
         <v>10</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>9</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="33">
         <v>2</v>
       </c>
       <c r="G5" s="4">
@@ -11460,13 +12584,13 @@
       <c r="S5" t="s">
         <v>89</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="42">
         <v>10</v>
       </c>
-      <c r="U5" s="47">
+      <c r="U5" s="43">
         <v>9</v>
       </c>
-      <c r="V5" s="48">
+      <c r="V5" s="44">
         <v>2</v>
       </c>
       <c r="W5" s="12"/>
@@ -11516,13 +12640,13 @@
       <c r="A6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="31">
         <v>8.5</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>7.3</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="33">
         <v>2</v>
       </c>
       <c r="G6" s="4">
@@ -11568,13 +12692,13 @@
       <c r="S6" t="s">
         <v>90</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="42">
         <v>8.5</v>
       </c>
-      <c r="U6" s="47">
+      <c r="U6" s="43">
         <v>7.3</v>
       </c>
-      <c r="V6" s="48">
+      <c r="V6" s="44">
         <v>2</v>
       </c>
       <c r="W6" s="12"/>
@@ -11624,13 +12748,13 @@
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>6.3</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="33">
         <v>1</v>
       </c>
       <c r="G7" s="4">
@@ -11676,13 +12800,13 @@
       <c r="S7" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7" s="42">
         <v>3</v>
       </c>
-      <c r="U7" s="47">
+      <c r="U7" s="43">
         <v>6.3</v>
       </c>
-      <c r="V7" s="48">
+      <c r="V7" s="44">
         <v>1</v>
       </c>
       <c r="W7" s="12"/>
@@ -11732,13 +12856,13 @@
       <c r="A8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="31">
         <v>7.3</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="32">
         <v>11</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="33">
         <v>1</v>
       </c>
       <c r="G8" s="4">
@@ -11784,13 +12908,13 @@
       <c r="S8" t="s">
         <v>92</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="42">
         <v>7.3</v>
       </c>
-      <c r="U8" s="47">
+      <c r="U8" s="43">
         <v>11</v>
       </c>
-      <c r="V8" s="48">
+      <c r="V8" s="44">
         <v>1</v>
       </c>
       <c r="W8" s="12"/>
@@ -11840,13 +12964,13 @@
       <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="31">
         <v>5.3</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="32">
         <v>10.4</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="33">
         <v>1</v>
       </c>
       <c r="G9" s="4">
@@ -11892,13 +13016,13 @@
       <c r="S9" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="46">
+      <c r="T9" s="42">
         <v>5.3</v>
       </c>
-      <c r="U9" s="47">
+      <c r="U9" s="43">
         <v>10.4</v>
       </c>
-      <c r="V9" s="48">
+      <c r="V9" s="44">
         <v>1</v>
       </c>
       <c r="W9" s="12"/>
@@ -11948,13 +13072,13 @@
       <c r="A10" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="31">
         <v>4.2</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="32">
         <v>7.5</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="44">
         <v>1</v>
       </c>
       <c r="G10" s="24">
@@ -12000,13 +13124,13 @@
       <c r="S10" t="s">
         <v>94</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10" s="42">
         <v>4.2</v>
       </c>
-      <c r="U10" s="47">
+      <c r="U10" s="43">
         <v>7.5</v>
       </c>
-      <c r="V10" s="48">
+      <c r="V10" s="44">
         <v>1</v>
       </c>
       <c r="W10" s="12"/>
@@ -12056,13 +13180,13 @@
       <c r="A11" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="31">
         <v>7</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="32">
         <v>6.1</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="33">
         <v>2</v>
       </c>
       <c r="G11" s="4">
@@ -12108,13 +13232,13 @@
       <c r="S11" t="s">
         <v>95</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11" s="42">
         <v>7</v>
       </c>
-      <c r="U11" s="47">
+      <c r="U11" s="43">
         <v>6.1</v>
       </c>
-      <c r="V11" s="48">
+      <c r="V11" s="44">
         <v>2</v>
       </c>
       <c r="W11" s="12"/>
@@ -12164,13 +13288,13 @@
       <c r="A12" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="31">
         <v>10.3</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="32">
         <v>6.5</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="33">
         <v>2</v>
       </c>
       <c r="G12" s="4">
@@ -12216,13 +13340,13 @@
       <c r="S12" t="s">
         <v>96</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="42">
         <v>10.3</v>
       </c>
-      <c r="U12" s="47">
+      <c r="U12" s="43">
         <v>6.5</v>
       </c>
-      <c r="V12" s="48">
+      <c r="V12" s="44">
         <v>2</v>
       </c>
       <c r="W12" s="12"/>
@@ -12272,13 +13396,13 @@
       <c r="A13" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="32">
         <v>8.5</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="33">
         <v>1</v>
       </c>
       <c r="G13" s="10">
@@ -12324,13 +13448,13 @@
       <c r="S13" t="s">
         <v>97</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13" s="42">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U13" s="47">
+      <c r="U13" s="43">
         <v>8.5</v>
       </c>
-      <c r="V13" s="48">
+      <c r="V13" s="44">
         <v>1</v>
       </c>
       <c r="W13" s="12"/>
@@ -12380,13 +13504,13 @@
       <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="31">
         <v>9.4</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="32">
         <v>6.3</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="33">
         <v>2</v>
       </c>
       <c r="G14" s="4">
@@ -12432,13 +13556,13 @@
       <c r="S14" t="s">
         <v>98</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="42">
         <v>9.4</v>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="43">
         <v>6.3</v>
       </c>
-      <c r="V14" s="48">
+      <c r="V14" s="44">
         <v>2</v>
       </c>
       <c r="W14" s="12"/>
@@ -12488,13 +13612,13 @@
       <c r="A15" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="31">
         <v>3.4</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="32">
         <v>7.2</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="33">
         <v>1</v>
       </c>
       <c r="G15" s="4">
@@ -12540,13 +13664,13 @@
       <c r="S15" t="s">
         <v>99</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="42">
         <v>3.4</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="43">
         <v>7.2</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="44">
         <v>1</v>
       </c>
       <c r="W15" s="12"/>
@@ -12596,13 +13720,13 @@
       <c r="A16" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="31">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="32">
         <v>10.5</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="33">
         <v>2</v>
       </c>
       <c r="G16" s="4">
@@ -12648,13 +13772,13 @@
       <c r="S16" t="s">
         <v>100</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="42">
         <v>9.3000000000000007</v>
       </c>
-      <c r="U16" s="47">
+      <c r="U16" s="43">
         <v>10.5</v>
       </c>
-      <c r="V16" s="48">
+      <c r="V16" s="44">
         <v>2</v>
       </c>
       <c r="W16" s="12"/>
@@ -12704,13 +13828,13 @@
       <c r="A17" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="31">
         <v>10.199999999999999</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="32">
         <v>11.3</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="33">
         <v>2</v>
       </c>
       <c r="G17" s="4">
@@ -12756,13 +13880,13 @@
       <c r="S17" t="s">
         <v>101</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="42">
         <v>10.199999999999999</v>
       </c>
-      <c r="U17" s="47">
+      <c r="U17" s="43">
         <v>11.3</v>
       </c>
-      <c r="V17" s="48">
+      <c r="V17" s="44">
         <v>2</v>
       </c>
       <c r="W17" s="12"/>
@@ -12812,13 +13936,13 @@
       <c r="A18" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6.3</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="35">
         <v>7.2</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="36">
         <v>2</v>
       </c>
       <c r="G18" s="4">
@@ -12864,13 +13988,13 @@
       <c r="S18" t="s">
         <v>102</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="45">
         <v>6.3</v>
       </c>
-      <c r="U18" s="50">
+      <c r="U18" s="46">
         <v>7.2</v>
       </c>
-      <c r="V18" s="51">
+      <c r="V18" s="47">
         <v>2</v>
       </c>
       <c r="W18" s="12"/>
@@ -12917,56 +14041,56 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="T21" s="42" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="T21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="T22" s="31" t="s">
+      <c r="T22" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U22" s="32" t="s">
+      <c r="U22" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="V22" s="33" t="s">
+      <c r="V22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="W22" s="43" t="s">
+      <c r="W22" s="40" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12974,16 +14098,16 @@
       <c r="A23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="31">
         <v>2.6</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="32">
         <v>9.4</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="33">
         <v>1</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="41">
         <v>1</v>
       </c>
       <c r="F23" t="str">
@@ -12993,16 +14117,16 @@
       <c r="S23" t="s">
         <v>103</v>
       </c>
-      <c r="T23" s="34">
+      <c r="T23" s="31">
         <v>2.6</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="32">
         <v>9.4</v>
       </c>
-      <c r="V23" s="36">
+      <c r="V23" s="33">
         <v>1</v>
       </c>
-      <c r="W23" s="44">
+      <c r="W23" s="41">
         <v>1</v>
       </c>
       <c r="X23" t="str">
@@ -13014,16 +14138,16 @@
       <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="31">
         <v>5</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="32">
         <v>5.4</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="33">
         <v>1</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="41">
         <v>2</v>
       </c>
       <c r="F24" t="str">
@@ -13033,16 +14157,16 @@
       <c r="S24" t="s">
         <v>104</v>
       </c>
-      <c r="T24" s="34">
+      <c r="T24" s="31">
         <v>5</v>
       </c>
-      <c r="U24" s="35">
+      <c r="U24" s="32">
         <v>5.4</v>
       </c>
-      <c r="V24" s="36">
+      <c r="V24" s="33">
         <v>1</v>
       </c>
-      <c r="W24" s="44">
+      <c r="W24" s="41">
         <v>2</v>
       </c>
       <c r="X24" t="str">
@@ -13054,16 +14178,16 @@
       <c r="A25" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="31">
         <v>3.1</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="32">
         <v>1.3</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="33">
         <v>1</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="41">
         <v>1</v>
       </c>
       <c r="F25" t="str">
@@ -13073,16 +14197,16 @@
       <c r="S25" t="s">
         <v>105</v>
       </c>
-      <c r="T25" s="34">
+      <c r="T25" s="31">
         <v>3.1</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25" s="32">
         <v>1.3</v>
       </c>
-      <c r="V25" s="36">
+      <c r="V25" s="33">
         <v>1</v>
       </c>
-      <c r="W25" s="44">
+      <c r="W25" s="41">
         <v>1</v>
       </c>
       <c r="X25" t="str">
@@ -13094,16 +14218,16 @@
       <c r="A26" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="31">
         <v>9.1</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="32">
         <v>7.2</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="33">
         <v>2</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="41">
         <v>2</v>
       </c>
       <c r="F26" t="str">
@@ -13113,16 +14237,16 @@
       <c r="S26" t="s">
         <v>106</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26" s="31">
         <v>9.1</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U26" s="32">
         <v>7.2</v>
       </c>
-      <c r="V26" s="36">
+      <c r="V26" s="33">
         <v>2</v>
       </c>
-      <c r="W26" s="44">
+      <c r="W26" s="41">
         <v>2</v>
       </c>
       <c r="X26" t="str">
@@ -13134,16 +14258,16 @@
       <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="31">
         <v>7.7</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="32">
         <v>0.4</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="33">
         <v>2</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="41">
         <v>2</v>
       </c>
       <c r="F27" t="str">
@@ -13153,16 +14277,16 @@
       <c r="S27" t="s">
         <v>107</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27" s="31">
         <v>7.7</v>
       </c>
-      <c r="U27" s="35">
+      <c r="U27" s="32">
         <v>0.4</v>
       </c>
-      <c r="V27" s="36">
+      <c r="V27" s="33">
         <v>2</v>
       </c>
-      <c r="W27" s="44">
+      <c r="W27" s="41">
         <v>2</v>
       </c>
       <c r="X27" t="str">
@@ -13174,16 +14298,16 @@
       <c r="A28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="31">
         <v>5.4</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="32">
         <v>1.2</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="33">
         <v>2</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="41">
         <v>2</v>
       </c>
       <c r="F28" t="str">
@@ -13193,16 +14317,16 @@
       <c r="S28" t="s">
         <v>108</v>
       </c>
-      <c r="T28" s="34">
+      <c r="T28" s="31">
         <v>5.4</v>
       </c>
-      <c r="U28" s="35">
+      <c r="U28" s="32">
         <v>1.2</v>
       </c>
-      <c r="V28" s="36">
+      <c r="V28" s="33">
         <v>2</v>
       </c>
-      <c r="W28" s="44">
+      <c r="W28" s="41">
         <v>2</v>
       </c>
       <c r="X28" t="str">
@@ -13214,16 +14338,16 @@
       <c r="A29" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="31">
         <v>1.4</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="32">
         <v>5.6</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="33">
         <v>1</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="41">
         <v>1</v>
       </c>
       <c r="F29" t="str">
@@ -13233,16 +14357,16 @@
       <c r="S29" t="s">
         <v>109</v>
       </c>
-      <c r="T29" s="34">
+      <c r="T29" s="31">
         <v>1.4</v>
       </c>
-      <c r="U29" s="35">
+      <c r="U29" s="32">
         <v>5.6</v>
       </c>
-      <c r="V29" s="36">
+      <c r="V29" s="33">
         <v>1</v>
       </c>
-      <c r="W29" s="44">
+      <c r="W29" s="41">
         <v>1</v>
       </c>
       <c r="X29" t="str">
@@ -13254,16 +14378,16 @@
       <c r="A30" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="31">
         <v>7.4</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="32">
         <v>4.3</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="33">
         <v>2</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="41">
         <v>2</v>
       </c>
       <c r="F30" t="str">
@@ -13273,16 +14397,16 @@
       <c r="S30" t="s">
         <v>110</v>
       </c>
-      <c r="T30" s="34">
+      <c r="T30" s="31">
         <v>7.4</v>
       </c>
-      <c r="U30" s="35">
+      <c r="U30" s="32">
         <v>4.3</v>
       </c>
-      <c r="V30" s="36">
+      <c r="V30" s="33">
         <v>2</v>
       </c>
-      <c r="W30" s="44">
+      <c r="W30" s="41">
         <v>2</v>
       </c>
       <c r="X30" t="str">
@@ -13294,16 +14418,16 @@
       <c r="A31" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="32">
         <v>1.9</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="33">
         <v>2</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="41">
         <v>2</v>
       </c>
       <c r="F31" t="str">
@@ -13313,16 +14437,16 @@
       <c r="S31" t="s">
         <v>111</v>
       </c>
-      <c r="T31" s="34">
+      <c r="T31" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U31" s="35">
+      <c r="U31" s="32">
         <v>1.9</v>
       </c>
-      <c r="V31" s="36">
+      <c r="V31" s="33">
         <v>2</v>
       </c>
-      <c r="W31" s="44">
+      <c r="W31" s="41">
         <v>2</v>
       </c>
       <c r="X31" t="str">
@@ -13334,16 +14458,16 @@
       <c r="A32" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="34">
         <v>2.8</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="35">
         <v>6.1</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="36">
         <v>1</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="41">
         <v>1</v>
       </c>
       <c r="F32" t="str">
@@ -13353,16 +14477,16 @@
       <c r="S32" t="s">
         <v>112</v>
       </c>
-      <c r="T32" s="37">
+      <c r="T32" s="34">
         <v>2.8</v>
       </c>
-      <c r="U32" s="38">
+      <c r="U32" s="35">
         <v>6.1</v>
       </c>
-      <c r="V32" s="39">
+      <c r="V32" s="36">
         <v>1</v>
       </c>
-      <c r="W32" s="44">
+      <c r="W32" s="41">
         <v>1</v>
       </c>
       <c r="X32" t="str">
@@ -13387,16 +14511,16 @@
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="T37" s="45" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="T37" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
@@ -13459,5 +14583,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Geology/8.xlsx
+++ b/Geology/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ECC41F-350B-4EA9-9B30-CC2FE0385419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F28342-7A9D-4CAC-988E-918C91E5569A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
@@ -3701,7 +3701,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1025371828521434E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3710,6 +3720,368 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-246A-4CC6-A905-D81E00A36187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3'!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3'!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-246A-4CC6-A905-D81E00A36187}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3730,190 +4102,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'3'!$B$3:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D958-43EA-B9FD-761DD4CBDE4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Ряд 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'3'!$C$3:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D958-43EA-B9FD-761DD4CBDE4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Ряд 3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'3'!$B$23:$B$32</c:f>
@@ -3995,7 +4183,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D958-43EA-B9FD-761DD4CBDE4D}"/>
+              <c16:uniqueId val="{00000001-246A-4CC6-A905-D81E00A36187}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4007,11 +4195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1540344192"/>
-        <c:axId val="1545864848"/>
+        <c:axId val="636959199"/>
+        <c:axId val="506011407"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1540344192"/>
+        <c:axId val="636959199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4031,6 +4219,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4067,12 +4256,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545864848"/>
+        <c:crossAx val="506011407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1545864848"/>
+        <c:axId val="506011407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4318,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540344192"/>
+        <c:crossAx val="636959199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4346,9 +4535,12 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -7121,22 +7313,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6A77B7-4C7B-4182-B79D-3CBD07CD56C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E55972B-EB8D-4165-BE80-7CE98A1D1594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12211,8 +12403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D7B58A-C7D5-4C44-A35A-C721F3D1ADC9}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Geology/8.xlsx
+++ b/Geology/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F28342-7A9D-4CAC-988E-918C91E5569A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E78FD7-E7CE-48BF-9DD8-C6EFE2CEA1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
@@ -12403,8 +12403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D7B58A-C7D5-4C44-A35A-C721F3D1ADC9}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
